--- a/Datos Tarea 2/bd_liverpool.xlsx
+++ b/Datos Tarea 2/bd_liverpool.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leobardoenriquez/Documents/GitHub/TareasMacro2/Datos Tarea 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F74D18BA-8112-CA4E-AB1C-C85170952917}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1226BA09-5A7A-9E47-AEB7-EC8AE496F0E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="500" windowWidth="27240" windowHeight="16260" xr2:uid="{DE66C54F-DE35-6443-A6DD-85AD5D45F405}"/>
+    <workbookView xWindow="4020" yWindow="500" windowWidth="27240" windowHeight="16260" xr2:uid="{DE66C54F-DE35-6443-A6DD-85AD5D45F405}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="77">
   <si>
     <t>Anio</t>
   </si>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t>2017-4</t>
+  </si>
+  <si>
+    <t>num_acc</t>
+  </si>
+  <si>
+    <t>prec_acc</t>
+  </si>
+  <si>
+    <t>pasiv_t</t>
+  </si>
+  <si>
+    <t>activ_t</t>
   </si>
 </sst>
 </file>
@@ -301,9 +313,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,15 +632,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A6A4D5-213C-4149-BE2C-28F9D0B1E31A}">
-  <dimension ref="A1:AA44"/>
+  <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="W44" sqref="W44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,8 +727,20 @@
       <c r="AA1" t="s">
         <v>25</v>
       </c>
+      <c r="AB1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2007</v>
       </c>
@@ -770,8 +801,22 @@
       <c r="AA2">
         <v>0.67554473386240299</v>
       </c>
+      <c r="AB2" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC2">
+        <v>60.2</v>
+      </c>
+      <c r="AD2" s="3">
+        <f>I2*1000000</f>
+        <v>43544314000</v>
+      </c>
+      <c r="AE2" s="3">
+        <f>(K2+L2)*1000000</f>
+        <v>15320752000</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -850,8 +895,22 @@
       <c r="AA3">
         <v>2.36826871000742</v>
       </c>
+      <c r="AB3" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC3">
+        <v>60.1</v>
+      </c>
+      <c r="AD3" s="3">
+        <f t="shared" ref="AD3:AD44" si="0">I3*1000000</f>
+        <v>45236496000</v>
+      </c>
+      <c r="AE3" s="3">
+        <f t="shared" ref="AE3:AE44" si="1">(K3+L3)*1000000</f>
+        <v>16075053000</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -930,8 +989,22 @@
       <c r="AA4">
         <v>4.6557817825792798</v>
       </c>
+      <c r="AB4" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC4">
+        <v>61</v>
+      </c>
+      <c r="AD4" s="3">
+        <f t="shared" si="0"/>
+        <v>49585933000</v>
+      </c>
+      <c r="AE4" s="3">
+        <f t="shared" si="1"/>
+        <v>18195389000</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -1010,8 +1083,22 @@
       <c r="AA5">
         <v>4.7784033731119404</v>
       </c>
+      <c r="AB5" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC5">
+        <v>60</v>
+      </c>
+      <c r="AD5" s="3">
+        <f t="shared" si="0"/>
+        <v>48648288000</v>
+      </c>
+      <c r="AE5" s="3">
+        <f t="shared" si="1"/>
+        <v>17417195000</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2008</v>
       </c>
@@ -1090,8 +1177,22 @@
       <c r="AA6">
         <v>0.30558181139344498</v>
       </c>
+      <c r="AB6" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC6">
+        <v>52</v>
+      </c>
+      <c r="AD6" s="3">
+        <f t="shared" si="0"/>
+        <v>50067432000</v>
+      </c>
+      <c r="AE6" s="3">
+        <f t="shared" si="1"/>
+        <v>17265086000</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -1173,8 +1274,22 @@
       <c r="AA7">
         <v>0.54562348127401805</v>
       </c>
+      <c r="AB7" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC7">
+        <v>40</v>
+      </c>
+      <c r="AD7" s="3">
+        <f t="shared" si="0"/>
+        <v>51243797000</v>
+      </c>
+      <c r="AE7" s="3">
+        <f t="shared" si="1"/>
+        <v>18048710000</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -1253,8 +1368,22 @@
       <c r="AA8">
         <v>0.99642304842847096</v>
       </c>
+      <c r="AB8" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC8">
+        <v>39</v>
+      </c>
+      <c r="AD8" s="3">
+        <f t="shared" si="0"/>
+        <v>52347983000</v>
+      </c>
+      <c r="AE8" s="3">
+        <f t="shared" si="1"/>
+        <v>18274163000</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -1336,8 +1465,22 @@
       <c r="AA9">
         <v>0.70184665375680899</v>
       </c>
+      <c r="AB9" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC9">
+        <v>40</v>
+      </c>
+      <c r="AD9" s="3">
+        <f t="shared" si="0"/>
+        <v>50301950000</v>
+      </c>
+      <c r="AE9" s="3">
+        <f t="shared" si="1"/>
+        <v>16722631999.999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -1416,8 +1559,22 @@
       <c r="AA10">
         <v>4.1326126900442102</v>
       </c>
+      <c r="AB10" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC10">
+        <v>48.1</v>
+      </c>
+      <c r="AD10" s="3">
+        <f t="shared" si="0"/>
+        <v>51435920000</v>
+      </c>
+      <c r="AE10" s="3">
+        <f t="shared" si="1"/>
+        <v>16616789000</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -1496,8 +1653,22 @@
       <c r="AA11">
         <v>0.27130397804166301</v>
       </c>
+      <c r="AB11" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC11">
+        <v>52</v>
+      </c>
+      <c r="AD11" s="3">
+        <f t="shared" si="0"/>
+        <v>51962117000</v>
+      </c>
+      <c r="AE11" s="3">
+        <f t="shared" si="1"/>
+        <v>16637050000</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -1576,8 +1747,22 @@
       <c r="AA12">
         <v>0.57326248323576101</v>
       </c>
+      <c r="AB12" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC12">
+        <v>65</v>
+      </c>
+      <c r="AD12" s="3">
+        <f t="shared" si="0"/>
+        <v>59168045000</v>
+      </c>
+      <c r="AE12" s="3">
+        <f t="shared" si="1"/>
+        <v>21820908000</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -1659,8 +1844,22 @@
       <c r="AA13">
         <v>0.64096158934059899</v>
       </c>
+      <c r="AB13" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC13">
+        <v>66.5</v>
+      </c>
+      <c r="AD13" s="3">
+        <f t="shared" si="0"/>
+        <v>57372040000</v>
+      </c>
+      <c r="AE13" s="3">
+        <f t="shared" si="1"/>
+        <v>20119673000.000004</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2010</v>
       </c>
@@ -1742,8 +1941,22 @@
       <c r="AA14">
         <v>1.0804672413598899</v>
       </c>
+      <c r="AB14" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC14">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="AD14" s="3">
+        <f t="shared" si="0"/>
+        <v>61820225000</v>
+      </c>
+      <c r="AE14" s="3">
+        <f t="shared" si="1"/>
+        <v>23051228000.000004</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -1825,8 +2038,22 @@
       <c r="AA15">
         <v>6.5279967586883201</v>
       </c>
+      <c r="AB15" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC15">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="AD15" s="3">
+        <f t="shared" si="0"/>
+        <v>63075552000</v>
+      </c>
+      <c r="AE15" s="3">
+        <f t="shared" si="1"/>
+        <v>23364449000</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2010</v>
       </c>
@@ -1908,8 +2135,22 @@
       <c r="AA16">
         <v>0.52407809978084496</v>
       </c>
+      <c r="AB16" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC16">
+        <v>84</v>
+      </c>
+      <c r="AD16" s="3">
+        <f t="shared" si="0"/>
+        <v>68277570000.000008</v>
+      </c>
+      <c r="AE16" s="3">
+        <f t="shared" si="1"/>
+        <v>26290426000</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2011</v>
       </c>
@@ -1991,8 +2232,22 @@
       <c r="AA17">
         <v>0.54593153810471995</v>
       </c>
+      <c r="AB17" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC17">
+        <v>87.98</v>
+      </c>
+      <c r="AD17" s="3">
+        <f t="shared" si="0"/>
+        <v>65042546000</v>
+      </c>
+      <c r="AE17" s="3">
+        <f t="shared" si="1"/>
+        <v>22889128000</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -2074,8 +2329,22 @@
       <c r="AA18">
         <v>0.801462711870085</v>
       </c>
+      <c r="AB18" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC18">
+        <v>94.96</v>
+      </c>
+      <c r="AD18" s="3">
+        <f t="shared" si="0"/>
+        <v>66577694000</v>
+      </c>
+      <c r="AE18" s="3">
+        <f t="shared" si="1"/>
+        <v>22529116000</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -2157,8 +2426,22 @@
       <c r="AA19">
         <v>1.45409531843819</v>
       </c>
+      <c r="AB19" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC19">
+        <v>91.1</v>
+      </c>
+      <c r="AD19" s="3">
+        <f t="shared" si="0"/>
+        <v>68093899000.000008</v>
+      </c>
+      <c r="AE19" s="3">
+        <f t="shared" si="1"/>
+        <v>22863370000.000004</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -2240,8 +2523,22 @@
       <c r="AA20">
         <v>8.3129825399172894</v>
       </c>
+      <c r="AB20" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC20">
+        <v>99.07</v>
+      </c>
+      <c r="AD20" s="3">
+        <f t="shared" si="0"/>
+        <v>73023059000</v>
+      </c>
+      <c r="AE20" s="3">
+        <f t="shared" si="1"/>
+        <v>25521319000.000004</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2012</v>
       </c>
@@ -2323,8 +2620,22 @@
       <c r="AA21">
         <v>10.0841690874799</v>
       </c>
+      <c r="AB21" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC21">
+        <v>103.24</v>
+      </c>
+      <c r="AD21" s="3">
+        <f t="shared" si="0"/>
+        <v>75697980000</v>
+      </c>
+      <c r="AE21" s="3">
+        <f t="shared" si="1"/>
+        <v>32354784000</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2012</v>
       </c>
@@ -2406,8 +2717,22 @@
       <c r="AA22">
         <v>0.74668135781515599</v>
       </c>
+      <c r="AB22" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC22">
+        <v>104.06</v>
+      </c>
+      <c r="AD22" s="3">
+        <f t="shared" si="0"/>
+        <v>78186019000</v>
+      </c>
+      <c r="AE22" s="3">
+        <f t="shared" si="1"/>
+        <v>33060250000</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2012</v>
       </c>
@@ -2489,8 +2814,22 @@
       <c r="AA23">
         <v>1</v>
       </c>
+      <c r="AB23" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC23">
+        <v>117.35</v>
+      </c>
+      <c r="AD23" s="3">
+        <f t="shared" si="0"/>
+        <v>79691780000</v>
+      </c>
+      <c r="AE23" s="3">
+        <f t="shared" si="1"/>
+        <v>33237987000</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2012</v>
       </c>
@@ -2572,8 +2911,22 @@
       <c r="AA24">
         <v>2.2191611953839701</v>
       </c>
+      <c r="AB24" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC24">
+        <v>140.91</v>
+      </c>
+      <c r="AD24" s="3">
+        <f t="shared" si="0"/>
+        <v>85109854000</v>
+      </c>
+      <c r="AE24" s="3">
+        <f t="shared" si="1"/>
+        <v>35580144000</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -2655,8 +3008,22 @@
       <c r="AA25">
         <v>2.4908405713670501</v>
       </c>
+      <c r="AB25" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC25">
+        <v>153.55000000000001</v>
+      </c>
+      <c r="AD25" s="3">
+        <f t="shared" si="0"/>
+        <v>85057440000</v>
+      </c>
+      <c r="AE25" s="3">
+        <f t="shared" si="1"/>
+        <v>35535365000.000008</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2013</v>
       </c>
@@ -2738,8 +3105,22 @@
       <c r="AA26">
         <v>14.4220214537718</v>
       </c>
+      <c r="AB26" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC26">
+        <v>147.35</v>
+      </c>
+      <c r="AD26" s="3">
+        <f t="shared" si="0"/>
+        <v>87154651000</v>
+      </c>
+      <c r="AE26" s="3">
+        <f t="shared" si="1"/>
+        <v>35757854999.999992</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2013</v>
       </c>
@@ -2821,8 +3202,22 @@
       <c r="AA27">
         <v>0.92144046402486302</v>
       </c>
+      <c r="AB27" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC27">
+        <v>140.91</v>
+      </c>
+      <c r="AD27" s="3">
+        <f t="shared" si="0"/>
+        <v>90716703000</v>
+      </c>
+      <c r="AE27" s="3">
+        <f t="shared" si="1"/>
+        <v>38075632000</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -2904,8 +3299,22 @@
       <c r="AA28">
         <v>1.1031669165050899</v>
       </c>
+      <c r="AB28" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC28">
+        <v>140.32</v>
+      </c>
+      <c r="AD28" s="3">
+        <f t="shared" si="0"/>
+        <v>94581445000</v>
+      </c>
+      <c r="AE28" s="3">
+        <f t="shared" si="1"/>
+        <v>39754113000</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2014</v>
       </c>
@@ -2987,8 +3396,22 @@
       <c r="AA29">
         <v>0.93107928639156701</v>
       </c>
+      <c r="AB29" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC29">
+        <v>134.72999999999999</v>
+      </c>
+      <c r="AD29" s="3">
+        <f t="shared" si="0"/>
+        <v>93078291000</v>
+      </c>
+      <c r="AE29" s="3">
+        <f t="shared" si="1"/>
+        <v>37245358000</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2014</v>
       </c>
@@ -3070,8 +3493,22 @@
       <c r="AA30">
         <v>2.6425877565528499</v>
       </c>
+      <c r="AB30" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC30">
+        <v>147.16</v>
+      </c>
+      <c r="AD30" s="3">
+        <f t="shared" si="0"/>
+        <v>94824271000</v>
+      </c>
+      <c r="AE30" s="3">
+        <f t="shared" si="1"/>
+        <v>37265175000</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -3153,8 +3590,22 @@
       <c r="AA31">
         <v>13.3701503223964</v>
       </c>
+      <c r="AB31" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC31">
+        <v>157.99</v>
+      </c>
+      <c r="AD31" s="3">
+        <f t="shared" si="0"/>
+        <v>95908991000</v>
+      </c>
+      <c r="AE31" s="3">
+        <f t="shared" si="1"/>
+        <v>37111667000</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2014</v>
       </c>
@@ -3236,8 +3687,22 @@
       <c r="AA32">
         <v>1.19607378999026</v>
       </c>
+      <c r="AB32" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC32">
+        <v>153.57</v>
+      </c>
+      <c r="AD32" s="3">
+        <f t="shared" si="0"/>
+        <v>103438257000</v>
+      </c>
+      <c r="AE32" s="3">
+        <f t="shared" si="1"/>
+        <v>40771836000</v>
+      </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -3319,8 +3784,22 @@
       <c r="AA33">
         <v>1.3294610116539201</v>
       </c>
+      <c r="AB33" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC33">
+        <v>168.53</v>
+      </c>
+      <c r="AD33" s="3">
+        <f t="shared" si="0"/>
+        <v>101084400000</v>
+      </c>
+      <c r="AE33" s="3">
+        <f t="shared" si="1"/>
+        <v>38124765000</v>
+      </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2015</v>
       </c>
@@ -3402,8 +3881,22 @@
       <c r="AA34">
         <v>1.2076079312850501</v>
       </c>
+      <c r="AB34" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC34">
+        <v>188.6</v>
+      </c>
+      <c r="AD34" s="3">
+        <f t="shared" si="0"/>
+        <v>104402678000</v>
+      </c>
+      <c r="AE34" s="3">
+        <f t="shared" si="1"/>
+        <v>39547115999.999992</v>
+      </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2015</v>
       </c>
@@ -3485,8 +3978,22 @@
       <c r="AA35">
         <v>4.4669837621259401</v>
       </c>
+      <c r="AB35" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC35">
+        <v>229.39</v>
+      </c>
+      <c r="AD35" s="3">
+        <f t="shared" si="0"/>
+        <v>107136275000</v>
+      </c>
+      <c r="AE35" s="3">
+        <f t="shared" si="1"/>
+        <v>40835957000</v>
+      </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2015</v>
       </c>
@@ -3568,8 +4075,22 @@
       <c r="AA36">
         <v>18.133345978755699</v>
       </c>
+      <c r="AB36" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC36">
+        <v>216.36</v>
+      </c>
+      <c r="AD36" s="3">
+        <f t="shared" si="0"/>
+        <v>115001121000</v>
+      </c>
+      <c r="AE36" s="3">
+        <f t="shared" si="1"/>
+        <v>44141670000</v>
+      </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2016</v>
       </c>
@@ -3651,8 +4172,22 @@
       <c r="AA37">
         <v>13.099409829225801</v>
       </c>
+      <c r="AB37" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC37">
+        <v>195.57</v>
+      </c>
+      <c r="AD37" s="3">
+        <f t="shared" si="0"/>
+        <v>111836265000</v>
+      </c>
+      <c r="AE37" s="3">
+        <f t="shared" si="1"/>
+        <v>40750129000</v>
+      </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2016</v>
       </c>
@@ -3734,8 +4269,22 @@
       <c r="AA38">
         <v>1.4869773847032901</v>
       </c>
+      <c r="AB38" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC38">
+        <v>181.73</v>
+      </c>
+      <c r="AD38" s="3">
+        <f t="shared" si="0"/>
+        <v>116151807000</v>
+      </c>
+      <c r="AE38" s="3">
+        <f t="shared" si="1"/>
+        <v>42631042000</v>
+      </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2016</v>
       </c>
@@ -3817,8 +4366,22 @@
       <c r="AA39">
         <v>1.35079722977716</v>
       </c>
+      <c r="AB39" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC39">
+        <v>196.12</v>
+      </c>
+      <c r="AD39" s="3">
+        <f t="shared" si="0"/>
+        <v>134911371000.00002</v>
+      </c>
+      <c r="AE39" s="3">
+        <f t="shared" si="1"/>
+        <v>59968902000</v>
+      </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2016</v>
       </c>
@@ -3900,8 +4463,22 @@
       <c r="AA40">
         <v>4.1943613270634703</v>
       </c>
+      <c r="AB40" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC40">
+        <v>131.58000000000001</v>
+      </c>
+      <c r="AD40" s="3">
+        <f t="shared" si="0"/>
+        <v>148400611000</v>
+      </c>
+      <c r="AE40" s="3">
+        <f t="shared" si="1"/>
+        <v>66652004000</v>
+      </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2017</v>
       </c>
@@ -3983,8 +4560,22 @@
       <c r="AA41">
         <v>4.6301080688901202</v>
       </c>
+      <c r="AB41" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC41">
+        <v>145.41999999999999</v>
+      </c>
+      <c r="AD41" s="3">
+        <f t="shared" si="0"/>
+        <v>140653037000</v>
+      </c>
+      <c r="AE41" s="3">
+        <f t="shared" si="1"/>
+        <v>60670655000</v>
+      </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -4066,8 +4657,22 @@
       <c r="AA42">
         <v>8.8420253988871096</v>
       </c>
+      <c r="AB42" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC42">
+        <v>160.09</v>
+      </c>
+      <c r="AD42" s="3">
+        <f t="shared" si="0"/>
+        <v>150043739000</v>
+      </c>
+      <c r="AE42" s="3">
+        <f t="shared" si="1"/>
+        <v>67908343000.000008</v>
+      </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2017</v>
       </c>
@@ -4149,8 +4754,22 @@
       <c r="AA43">
         <v>1.1718615374312</v>
       </c>
+      <c r="AB43" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC43">
+        <v>130.6</v>
+      </c>
+      <c r="AD43" s="3">
+        <f t="shared" si="0"/>
+        <v>156494173000</v>
+      </c>
+      <c r="AE43" s="3">
+        <f t="shared" si="1"/>
+        <v>74956446000</v>
+      </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2017</v>
       </c>
@@ -4231,6 +4850,20 @@
       </c>
       <c r="AA44">
         <v>0.85420355814149795</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC44">
+        <v>137.76</v>
+      </c>
+      <c r="AD44" s="3">
+        <f t="shared" si="0"/>
+        <v>168226751000</v>
+      </c>
+      <c r="AE44" s="3">
+        <f t="shared" si="1"/>
+        <v>78144374000.000015</v>
       </c>
     </row>
   </sheetData>

--- a/Datos Tarea 2/bd_liverpool.xlsx
+++ b/Datos Tarea 2/bd_liverpool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leobardoenriquez/Documents/GitHub/TareasMacro2/Datos Tarea 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1226BA09-5A7A-9E47-AEB7-EC8AE496F0E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1FE521-11FE-AF4D-8BAC-2FE06A31D9D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="500" windowWidth="27240" windowHeight="16260" xr2:uid="{DE66C54F-DE35-6443-A6DD-85AD5D45F405}"/>
+    <workbookView xWindow="1820" yWindow="500" windowWidth="27240" windowHeight="16260" xr2:uid="{DE66C54F-DE35-6443-A6DD-85AD5D45F405}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="90">
   <si>
     <t>Anio</t>
   </si>
@@ -255,16 +255,55 @@
     <t>2017-4</t>
   </si>
   <si>
-    <t>num_acc</t>
-  </si>
-  <si>
-    <t>prec_acc</t>
-  </si>
-  <si>
-    <t>pasiv_t</t>
-  </si>
-  <si>
-    <t>activ_t</t>
+    <t>2018-1</t>
+  </si>
+  <si>
+    <t>2018-2</t>
+  </si>
+  <si>
+    <t>2018-3</t>
+  </si>
+  <si>
+    <t>2018-4</t>
+  </si>
+  <si>
+    <t>2019-1</t>
+  </si>
+  <si>
+    <t>2019-2</t>
+  </si>
+  <si>
+    <t>2019-3</t>
+  </si>
+  <si>
+    <t>2019-4</t>
+  </si>
+  <si>
+    <t>2020-1</t>
+  </si>
+  <si>
+    <t>2020-2</t>
+  </si>
+  <si>
+    <t>2020-3</t>
+  </si>
+  <si>
+    <t>2020-4</t>
+  </si>
+  <si>
+    <t>num_acciones</t>
+  </si>
+  <si>
+    <t>precio_acciones</t>
+  </si>
+  <si>
+    <t>activos_totales</t>
+  </si>
+  <si>
+    <t>pasivos_totales</t>
+  </si>
+  <si>
+    <t>capital_ppe</t>
   </si>
 </sst>
 </file>
@@ -293,12 +332,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -313,11 +358,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,20 +678,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A6A4D5-213C-4149-BE2C-28F9D0B1E31A}">
-  <dimension ref="A1:AE44"/>
+  <dimension ref="A1:AF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="W44" sqref="W44"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.5" customWidth="1"/>
+    <col min="29" max="29" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.5" customWidth="1"/>
+    <col min="31" max="31" width="19" customWidth="1"/>
+    <col min="32" max="32" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,16 +719,16 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="M1" t="s">
@@ -727,20 +776,23 @@
       <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>75</v>
+      <c r="AB1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2007</v>
       </c>
@@ -808,15 +860,16 @@
         <v>60.2</v>
       </c>
       <c r="AD2" s="3">
-        <f>I2*1000000</f>
         <v>43544314000</v>
       </c>
       <c r="AE2" s="3">
-        <f>(K2+L2)*1000000</f>
         <v>15320752000</v>
       </c>
+      <c r="AF2" s="3">
+        <v>21791995000</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -902,15 +955,16 @@
         <v>60.1</v>
       </c>
       <c r="AD3" s="3">
-        <f t="shared" ref="AD3:AD44" si="0">I3*1000000</f>
         <v>45236496000</v>
       </c>
       <c r="AE3" s="3">
-        <f t="shared" ref="AE3:AE44" si="1">(K3+L3)*1000000</f>
         <v>16075053000</v>
       </c>
+      <c r="AF3" s="3">
+        <v>22643548000</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -996,15 +1050,16 @@
         <v>61</v>
       </c>
       <c r="AD4" s="3">
-        <f t="shared" si="0"/>
         <v>49585933000</v>
       </c>
       <c r="AE4" s="3">
-        <f t="shared" si="1"/>
         <v>18195389000</v>
       </c>
+      <c r="AF4" s="3">
+        <v>23727162000</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -1090,15 +1145,16 @@
         <v>60</v>
       </c>
       <c r="AD5" s="3">
-        <f t="shared" si="0"/>
         <v>48648288000</v>
       </c>
       <c r="AE5" s="3">
-        <f t="shared" si="1"/>
         <v>17417195000</v>
       </c>
+      <c r="AF5" s="3">
+        <v>24354131000</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2008</v>
       </c>
@@ -1184,15 +1240,16 @@
         <v>52</v>
       </c>
       <c r="AD6" s="3">
-        <f t="shared" si="0"/>
         <v>50067432000</v>
       </c>
       <c r="AE6" s="3">
-        <f t="shared" si="1"/>
         <v>17265086000</v>
       </c>
+      <c r="AF6" s="3">
+        <v>24354090000</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -1281,15 +1338,16 @@
         <v>40</v>
       </c>
       <c r="AD7" s="3">
-        <f t="shared" si="0"/>
         <v>51243797000</v>
       </c>
       <c r="AE7" s="3">
-        <f t="shared" si="1"/>
         <v>18048710000</v>
       </c>
+      <c r="AF7" s="3">
+        <v>25116063000</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -1375,15 +1433,16 @@
         <v>39</v>
       </c>
       <c r="AD8" s="3">
-        <f t="shared" si="0"/>
         <v>52347983000</v>
       </c>
       <c r="AE8" s="3">
-        <f t="shared" si="1"/>
         <v>18274163000</v>
       </c>
+      <c r="AF8" s="3">
+        <v>25874993000</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -1472,15 +1531,16 @@
         <v>40</v>
       </c>
       <c r="AD9" s="3">
-        <f t="shared" si="0"/>
         <v>50301950000</v>
       </c>
       <c r="AE9" s="3">
-        <f t="shared" si="1"/>
         <v>16722631999.999998</v>
       </c>
+      <c r="AF9" s="3">
+        <v>26211561000</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -1566,15 +1626,16 @@
         <v>48.1</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" si="0"/>
         <v>51435920000</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" si="1"/>
         <v>16616789000</v>
       </c>
+      <c r="AF10" s="3">
+        <v>26225258000</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -1660,15 +1721,16 @@
         <v>52</v>
       </c>
       <c r="AD11" s="3">
-        <f t="shared" si="0"/>
         <v>51962117000</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" si="1"/>
         <v>16637050000</v>
       </c>
+      <c r="AF11" s="3">
+        <v>26005346000</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -1754,15 +1816,16 @@
         <v>65</v>
       </c>
       <c r="AD12" s="3">
-        <f t="shared" si="0"/>
         <v>59168045000</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" si="1"/>
         <v>21820908000</v>
       </c>
+      <c r="AF12" s="3">
+        <v>26743007000</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -1851,15 +1914,16 @@
         <v>66.5</v>
       </c>
       <c r="AD13" s="3">
-        <f t="shared" si="0"/>
         <v>57372040000</v>
       </c>
       <c r="AE13" s="3">
-        <f t="shared" si="1"/>
         <v>20119673000.000004</v>
       </c>
+      <c r="AF13" s="3">
+        <v>26803774000</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2010</v>
       </c>
@@ -1948,15 +2012,16 @@
         <v>65.599999999999994</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="0"/>
         <v>61820225000</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="1"/>
         <v>23051228000.000004</v>
       </c>
+      <c r="AF14" s="3">
+        <v>27251060000</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -2045,15 +2110,16 @@
         <v>70.989999999999995</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" si="0"/>
         <v>63075552000</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" si="1"/>
         <v>23364449000</v>
       </c>
+      <c r="AF15" s="3">
+        <v>27847307000</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2010</v>
       </c>
@@ -2142,15 +2208,16 @@
         <v>84</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="0"/>
         <v>68277570000.000008</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="1"/>
         <v>26290426000</v>
       </c>
+      <c r="AF16" s="3">
+        <v>28469868000</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2011</v>
       </c>
@@ -2239,15 +2306,16 @@
         <v>87.98</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="0"/>
         <v>65042546000</v>
       </c>
       <c r="AE17" s="3">
-        <f t="shared" si="1"/>
         <v>22889128000</v>
       </c>
+      <c r="AF17" s="3">
+        <v>29157926000</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -2336,15 +2404,16 @@
         <v>94.96</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="0"/>
         <v>66577694000</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="1"/>
         <v>22529116000</v>
       </c>
+      <c r="AF18" s="3">
+        <v>29979473000</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -2433,15 +2502,16 @@
         <v>91.1</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" si="0"/>
         <v>68093899000.000008</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="1"/>
         <v>22863370000.000004</v>
       </c>
+      <c r="AF19" s="3">
+        <v>31072180000</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -2530,15 +2600,16 @@
         <v>99.07</v>
       </c>
       <c r="AD20" s="3">
-        <f t="shared" si="0"/>
         <v>73023059000</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" si="1"/>
         <v>25521319000.000004</v>
       </c>
+      <c r="AF20" s="3">
+        <v>22319405000</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2012</v>
       </c>
@@ -2627,15 +2698,16 @@
         <v>103.24</v>
       </c>
       <c r="AD21" s="3">
-        <f t="shared" si="0"/>
         <v>75697980000</v>
       </c>
       <c r="AE21" s="3">
-        <f t="shared" si="1"/>
         <v>32354784000</v>
       </c>
+      <c r="AF21" s="3">
+        <v>23092035000</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2012</v>
       </c>
@@ -2724,15 +2796,16 @@
         <v>104.06</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" si="0"/>
         <v>78186019000</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="1"/>
         <v>33060250000</v>
       </c>
+      <c r="AF22" s="3">
+        <v>24408871000</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2012</v>
       </c>
@@ -2821,15 +2894,16 @@
         <v>117.35</v>
       </c>
       <c r="AD23" s="3">
-        <f t="shared" si="0"/>
         <v>79691780000</v>
       </c>
       <c r="AE23" s="3">
-        <f t="shared" si="1"/>
         <v>33237987000</v>
       </c>
+      <c r="AF23" s="3">
+        <v>25422870000</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2012</v>
       </c>
@@ -2918,15 +2992,16 @@
         <v>140.91</v>
       </c>
       <c r="AD24" s="3">
-        <f t="shared" si="0"/>
         <v>85109854000</v>
       </c>
       <c r="AE24" s="3">
-        <f t="shared" si="1"/>
         <v>35580144000</v>
       </c>
+      <c r="AF24" s="3">
+        <v>26490563000</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -3015,15 +3090,16 @@
         <v>153.55000000000001</v>
       </c>
       <c r="AD25" s="3">
-        <f t="shared" si="0"/>
         <v>85057440000</v>
       </c>
       <c r="AE25" s="3">
-        <f t="shared" si="1"/>
         <v>35535365000.000008</v>
       </c>
+      <c r="AF25" s="3">
+        <v>26910505000</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2013</v>
       </c>
@@ -3112,15 +3188,16 @@
         <v>147.35</v>
       </c>
       <c r="AD26" s="3">
-        <f t="shared" si="0"/>
         <v>87154651000</v>
       </c>
       <c r="AE26" s="3">
-        <f t="shared" si="1"/>
         <v>35757854999.999992</v>
       </c>
+      <c r="AF26" s="3">
+        <v>27501258000</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2013</v>
       </c>
@@ -3209,15 +3286,16 @@
         <v>140.91</v>
       </c>
       <c r="AD27" s="3">
-        <f t="shared" si="0"/>
         <v>90716703000</v>
       </c>
       <c r="AE27" s="3">
-        <f t="shared" si="1"/>
         <v>38075632000</v>
       </c>
+      <c r="AF27" s="3">
+        <v>28103431000</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -3306,15 +3384,16 @@
         <v>140.32</v>
       </c>
       <c r="AD28" s="3">
-        <f t="shared" si="0"/>
         <v>94581445000</v>
       </c>
       <c r="AE28" s="3">
-        <f t="shared" si="1"/>
         <v>39754113000</v>
       </c>
+      <c r="AF28" s="3">
+        <v>29054263000</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2014</v>
       </c>
@@ -3403,15 +3482,16 @@
         <v>134.72999999999999</v>
       </c>
       <c r="AD29" s="3">
-        <f t="shared" si="0"/>
         <v>93078291000</v>
       </c>
       <c r="AE29" s="3">
-        <f t="shared" si="1"/>
         <v>37245358000</v>
       </c>
+      <c r="AF29" s="3">
+        <v>29366196000</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2014</v>
       </c>
@@ -3500,15 +3580,16 @@
         <v>147.16</v>
       </c>
       <c r="AD30" s="3">
-        <f t="shared" si="0"/>
         <v>94824271000</v>
       </c>
       <c r="AE30" s="3">
-        <f t="shared" si="1"/>
         <v>37265175000</v>
       </c>
+      <c r="AF30" s="3">
+        <v>29589636000</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -3597,15 +3678,16 @@
         <v>157.99</v>
       </c>
       <c r="AD31" s="3">
-        <f t="shared" si="0"/>
         <v>95908991000</v>
       </c>
       <c r="AE31" s="3">
-        <f t="shared" si="1"/>
         <v>37111667000</v>
       </c>
+      <c r="AF31" s="3">
+        <v>29701591000</v>
+      </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2014</v>
       </c>
@@ -3694,15 +3776,16 @@
         <v>153.57</v>
       </c>
       <c r="AD32" s="3">
-        <f t="shared" si="0"/>
         <v>103438257000</v>
       </c>
       <c r="AE32" s="3">
-        <f t="shared" si="1"/>
         <v>40771836000</v>
       </c>
+      <c r="AF32" s="3">
+        <v>30390283000</v>
+      </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -3791,15 +3874,16 @@
         <v>168.53</v>
       </c>
       <c r="AD33" s="3">
-        <f t="shared" si="0"/>
         <v>101084400000</v>
       </c>
       <c r="AE33" s="3">
-        <f t="shared" si="1"/>
         <v>38124765000</v>
       </c>
+      <c r="AF33" s="3">
+        <v>30545364000</v>
+      </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2015</v>
       </c>
@@ -3888,15 +3972,16 @@
         <v>188.6</v>
       </c>
       <c r="AD34" s="3">
-        <f t="shared" si="0"/>
         <v>104402678000</v>
       </c>
       <c r="AE34" s="3">
-        <f t="shared" si="1"/>
         <v>39547115999.999992</v>
       </c>
+      <c r="AF34" s="3">
+        <v>31064514000</v>
+      </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2015</v>
       </c>
@@ -3985,15 +4070,16 @@
         <v>229.39</v>
       </c>
       <c r="AD35" s="3">
-        <f t="shared" si="0"/>
         <v>107136275000</v>
       </c>
       <c r="AE35" s="3">
-        <f t="shared" si="1"/>
         <v>40835957000</v>
       </c>
+      <c r="AF35" s="3">
+        <v>31108953000</v>
+      </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2015</v>
       </c>
@@ -4082,15 +4168,16 @@
         <v>216.36</v>
       </c>
       <c r="AD36" s="3">
-        <f t="shared" si="0"/>
         <v>115001121000</v>
       </c>
       <c r="AE36" s="3">
-        <f t="shared" si="1"/>
         <v>44141670000</v>
       </c>
+      <c r="AF36" s="3">
+        <v>31924823000</v>
+      </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2016</v>
       </c>
@@ -4179,15 +4266,16 @@
         <v>195.57</v>
       </c>
       <c r="AD37" s="3">
-        <f t="shared" si="0"/>
         <v>111836265000</v>
       </c>
       <c r="AE37" s="3">
-        <f t="shared" si="1"/>
         <v>40750129000</v>
       </c>
+      <c r="AF37" s="3">
+        <v>32266860000</v>
+      </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2016</v>
       </c>
@@ -4276,15 +4364,16 @@
         <v>181.73</v>
       </c>
       <c r="AD38" s="3">
-        <f t="shared" si="0"/>
         <v>116151807000</v>
       </c>
       <c r="AE38" s="3">
-        <f t="shared" si="1"/>
         <v>42631042000</v>
       </c>
+      <c r="AF38" s="3">
+        <v>32956091999.999996</v>
+      </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2016</v>
       </c>
@@ -4373,15 +4462,16 @@
         <v>196.12</v>
       </c>
       <c r="AD39" s="3">
-        <f t="shared" si="0"/>
         <v>134911371000.00002</v>
       </c>
       <c r="AE39" s="3">
-        <f t="shared" si="1"/>
         <v>59968902000</v>
       </c>
+      <c r="AF39" s="3">
+        <v>33937792999.999996</v>
+      </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2016</v>
       </c>
@@ -4470,15 +4560,16 @@
         <v>131.58000000000001</v>
       </c>
       <c r="AD40" s="3">
-        <f t="shared" si="0"/>
         <v>148400611000</v>
       </c>
       <c r="AE40" s="3">
-        <f t="shared" si="1"/>
         <v>66652004000</v>
       </c>
+      <c r="AF40" s="3">
+        <v>35463509000</v>
+      </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2017</v>
       </c>
@@ -4567,15 +4658,16 @@
         <v>145.41999999999999</v>
       </c>
       <c r="AD41" s="3">
-        <f t="shared" si="0"/>
         <v>140653037000</v>
       </c>
       <c r="AE41" s="3">
-        <f t="shared" si="1"/>
         <v>60670655000</v>
       </c>
+      <c r="AF41" s="3">
+        <v>36053414000</v>
+      </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -4664,15 +4756,16 @@
         <v>160.09</v>
       </c>
       <c r="AD42" s="3">
-        <f t="shared" si="0"/>
         <v>150043739000</v>
       </c>
       <c r="AE42" s="3">
-        <f t="shared" si="1"/>
         <v>67908343000.000008</v>
       </c>
+      <c r="AF42" s="3">
+        <v>43198845000</v>
+      </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2017</v>
       </c>
@@ -4761,15 +4854,16 @@
         <v>130.6</v>
       </c>
       <c r="AD43" s="3">
-        <f t="shared" si="0"/>
         <v>156494173000</v>
       </c>
       <c r="AE43" s="3">
-        <f t="shared" si="1"/>
         <v>74956446000</v>
       </c>
+      <c r="AF43" s="3">
+        <v>43790335000</v>
+      </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2017</v>
       </c>
@@ -4858,12 +4952,649 @@
         <v>137.76</v>
       </c>
       <c r="AD44" s="3">
-        <f t="shared" si="0"/>
         <v>168226751000</v>
       </c>
       <c r="AE44" s="3">
-        <f t="shared" si="1"/>
         <v>78144374000.000015</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>43855877000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2018</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45">
+        <v>5311</v>
+      </c>
+      <c r="H45">
+        <v>452111</v>
+      </c>
+      <c r="I45" s="2">
+        <v>160154.492</v>
+      </c>
+      <c r="K45">
+        <v>31016.2</v>
+      </c>
+      <c r="L45">
+        <v>40853.285000000003</v>
+      </c>
+      <c r="M45">
+        <v>44449.175999999999</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC45">
+        <v>124.78</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>160154492000</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>71869485000</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>44449176000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2018</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46">
+        <v>5311</v>
+      </c>
+      <c r="H46">
+        <v>452111</v>
+      </c>
+      <c r="I46">
+        <v>162743.53599999999</v>
+      </c>
+      <c r="K46">
+        <v>31285.842000000001</v>
+      </c>
+      <c r="L46">
+        <v>39367.623</v>
+      </c>
+      <c r="M46">
+        <v>45225.970999999998</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC46">
+        <v>138.31</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>162743536000</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>70653465000</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>45225971000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2018</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47">
+        <v>5311</v>
+      </c>
+      <c r="H47">
+        <v>452111</v>
+      </c>
+      <c r="I47">
+        <v>162626.31700000001</v>
+      </c>
+      <c r="K47">
+        <v>30195.313999999998</v>
+      </c>
+      <c r="L47">
+        <v>38999.159</v>
+      </c>
+      <c r="M47">
+        <v>46352.923999999999</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC47">
+        <v>128.72999999999999</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>162626317000</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>69194473000</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>46352924000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2018</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48">
+        <v>5311</v>
+      </c>
+      <c r="H48">
+        <v>452111</v>
+      </c>
+      <c r="I48">
+        <v>174622.774</v>
+      </c>
+      <c r="K48">
+        <v>34351.998</v>
+      </c>
+      <c r="L48">
+        <v>39570.487000000001</v>
+      </c>
+      <c r="M48">
+        <v>47115.103999999999</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC48">
+        <v>125.22</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>174622774000</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>73922485000</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>47115104000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2019</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49">
+        <v>5311</v>
+      </c>
+      <c r="H49">
+        <v>452111</v>
+      </c>
+      <c r="I49">
+        <v>179134.981</v>
+      </c>
+      <c r="K49">
+        <v>30958.608</v>
+      </c>
+      <c r="L49">
+        <v>48455.932000000001</v>
+      </c>
+      <c r="M49">
+        <v>47330.1</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC49">
+        <v>122.72</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>179134981000</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>79414540000.000015</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>47330100000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2019</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50">
+        <v>5311</v>
+      </c>
+      <c r="H50">
+        <v>452111</v>
+      </c>
+      <c r="I50">
+        <v>185673.378</v>
+      </c>
+      <c r="K50">
+        <v>37676.593000000001</v>
+      </c>
+      <c r="L50">
+        <v>46078.379000000001</v>
+      </c>
+      <c r="M50">
+        <v>48379.798999999999</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC50">
+        <v>93.08</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>185673378000</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>83754972000.000015</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>48379799000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2019</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51">
+        <v>5311</v>
+      </c>
+      <c r="H51">
+        <v>452111</v>
+      </c>
+      <c r="I51">
+        <v>186654.43700000001</v>
+      </c>
+      <c r="K51">
+        <v>36535.487000000001</v>
+      </c>
+      <c r="L51">
+        <v>46641.79</v>
+      </c>
+      <c r="M51">
+        <v>49599.457999999999</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC51">
+        <v>98.02</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>186654437000</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>83177277000</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>49599458000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2019</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52">
+        <v>5311</v>
+      </c>
+      <c r="H52">
+        <v>452111</v>
+      </c>
+      <c r="I52">
+        <v>200561.867</v>
+      </c>
+      <c r="K52">
+        <v>38794.455999999998</v>
+      </c>
+      <c r="L52">
+        <v>52692.87</v>
+      </c>
+      <c r="M52">
+        <v>50255.601000000002</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC52">
+        <v>99.84</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>200561867000</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>91487326000</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>50255601000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2020</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53">
+        <v>5311</v>
+      </c>
+      <c r="H53">
+        <v>452111</v>
+      </c>
+      <c r="I53">
+        <v>200381.62899999999</v>
+      </c>
+      <c r="K53" s="3">
+        <v>35307.521000000001</v>
+      </c>
+      <c r="L53">
+        <v>56000.228000000003</v>
+      </c>
+      <c r="M53">
+        <v>49902.735999999997</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC53">
+        <v>60.71</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>200381629000</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>91307749000.000015</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>49902736000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2020</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54">
+        <v>5311</v>
+      </c>
+      <c r="H54">
+        <v>452111</v>
+      </c>
+      <c r="I54">
+        <v>187477.823</v>
+      </c>
+      <c r="K54">
+        <v>26996.58</v>
+      </c>
+      <c r="L54">
+        <v>55423.434000000001</v>
+      </c>
+      <c r="M54">
+        <v>50157.635000000002</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC54">
+        <v>54.56</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>187477823000</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>82420014000</v>
+      </c>
+      <c r="AF54" s="3">
+        <v>50157635000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2020</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55">
+        <v>5311</v>
+      </c>
+      <c r="H55">
+        <v>452111</v>
+      </c>
+      <c r="I55">
+        <v>201066.53</v>
+      </c>
+      <c r="K55">
+        <v>36839.434999999998</v>
+      </c>
+      <c r="L55">
+        <v>58999.14</v>
+      </c>
+      <c r="M55">
+        <v>50686.186999999998</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC55">
+        <v>57.09</v>
+      </c>
+      <c r="AD55" s="3">
+        <v>201066530000</v>
+      </c>
+      <c r="AE55" s="3">
+        <v>95838575000</v>
+      </c>
+      <c r="AF55" s="3">
+        <v>50686187000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2020</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56">
+        <v>5311</v>
+      </c>
+      <c r="H56">
+        <v>452111</v>
+      </c>
+      <c r="I56">
+        <v>204843.372</v>
+      </c>
+      <c r="K56">
+        <v>39369.097999999998</v>
+      </c>
+      <c r="L56">
+        <v>57654.243000000002</v>
+      </c>
+      <c r="M56">
+        <v>50684.928</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>1342196100</v>
+      </c>
+      <c r="AC56">
+        <v>65.510000000000005</v>
+      </c>
+      <c r="AD56" s="3">
+        <v>204843372000</v>
+      </c>
+      <c r="AE56" s="3">
+        <v>97023341000</v>
+      </c>
+      <c r="AF56" s="3">
+        <v>50684928000</v>
       </c>
     </row>
   </sheetData>

--- a/Datos Tarea 2/bd_liverpool.xlsx
+++ b/Datos Tarea 2/bd_liverpool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leobardoenriquez/Documents/GitHub/TareasMacro2/Datos Tarea 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0066b8dfbbc5c50e/Documents/GitHub/TareasMacro2/Datos Tarea 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1FE521-11FE-AF4D-8BAC-2FE06A31D9D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{CB1FE521-11FE-AF4D-8BAC-2FE06A31D9D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3D1876BF-35C1-4B55-88A3-E7F4EC41D547}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="500" windowWidth="27240" windowHeight="16260" xr2:uid="{DE66C54F-DE35-6443-A6DD-85AD5D45F405}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE66C54F-DE35-6443-A6DD-85AD5D45F405}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="94">
   <si>
     <t>Anio</t>
   </si>
@@ -304,6 +304,18 @@
   </si>
   <si>
     <t>capital_ppe</t>
+  </si>
+  <si>
+    <t>capitalización</t>
+  </si>
+  <si>
+    <t>tasa_trim_trim</t>
+  </si>
+  <si>
+    <t>tasa_trim_anual</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -358,12 +370,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,7 +398,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -678,23 +694,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A6A4D5-213C-4149-BE2C-28F9D0B1E31A}">
-  <dimension ref="A1:AF56"/>
+  <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.5" customWidth="1"/>
-    <col min="29" max="29" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.5" customWidth="1"/>
-    <col min="31" max="31" width="19" customWidth="1"/>
-    <col min="32" max="32" width="21.33203125" customWidth="1"/>
+    <col min="29" max="29" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.296875" customWidth="1"/>
+    <col min="31" max="33" width="22.5" customWidth="1"/>
+    <col min="34" max="34" width="19" customWidth="1"/>
+    <col min="35" max="35" width="21.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -783,16 +800,25 @@
         <v>86</v>
       </c>
       <c r="AD1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2007</v>
       </c>
@@ -859,17 +885,27 @@
       <c r="AC2">
         <v>60.2</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AD2" s="5">
+        <f>AB2*AC2</f>
+        <v>80800205220</v>
+      </c>
+      <c r="AE2" s="3">
         <v>43544314000</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AF2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH2" s="3">
         <v>15320752000</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AI2" s="3">
         <v>21791995000</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -954,17 +990,28 @@
       <c r="AC3">
         <v>60.1</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="5">
+        <f t="shared" ref="AD3:AD56" si="0">AB3*AC3</f>
+        <v>80665985610</v>
+      </c>
+      <c r="AE3" s="3">
         <v>45236496000</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AF3" s="3">
+        <f>(AE3/AE2-1)*100</f>
+        <v>3.8861147290091713</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH3" s="3">
         <v>16075053000</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AI3" s="3">
         <v>22643548000</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -1049,17 +1096,28 @@
       <c r="AC4">
         <v>61</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="5">
+        <f t="shared" si="0"/>
+        <v>81873962100</v>
+      </c>
+      <c r="AE4" s="3">
         <v>49585933000</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AF4" s="3">
+        <f t="shared" ref="AF4:AF56" si="1">(AE4/AE3-1)*100</f>
+        <v>9.6148848487292113</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH4" s="3">
         <v>18195389000</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AI4" s="3">
         <v>23727162000</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -1144,17 +1202,28 @@
       <c r="AC5">
         <v>60</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD5" s="5">
+        <f t="shared" si="0"/>
+        <v>80531766000</v>
+      </c>
+      <c r="AE5" s="3">
         <v>48648288000</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="AF5" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.8909495965317435</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH5" s="3">
         <v>17417195000</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AI5" s="3">
         <v>24354131000</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2008</v>
       </c>
@@ -1239,17 +1308,29 @@
       <c r="AC6">
         <v>52</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="5">
+        <f t="shared" si="0"/>
+        <v>69794197200</v>
+      </c>
+      <c r="AE6" s="3">
         <v>50067432000</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AF6" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9171509591457756</v>
+      </c>
+      <c r="AG6" s="3">
+        <f>(AE6/AE2-1)*100</f>
+        <v>14.980412827263745</v>
+      </c>
+      <c r="AH6" s="3">
         <v>17265086000</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AI6" s="3">
         <v>24354090000</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -1337,17 +1418,29 @@
       <c r="AC7">
         <v>40</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="5">
+        <f t="shared" si="0"/>
+        <v>53687844000</v>
+      </c>
+      <c r="AE7" s="3">
         <v>51243797000</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AF7" s="3">
+        <f t="shared" si="1"/>
+        <v>2.349561287665014</v>
+      </c>
+      <c r="AG7" s="3">
+        <f>(AE7/AE3-1)*100</f>
+        <v>13.279766408078997</v>
+      </c>
+      <c r="AH7" s="3">
         <v>18048710000</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AI7" s="3">
         <v>25116063000</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -1432,17 +1525,29 @@
       <c r="AC8">
         <v>39</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="5">
+        <f t="shared" si="0"/>
+        <v>52345647900</v>
+      </c>
+      <c r="AE8" s="3">
         <v>52347983000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1547700690485616</v>
+      </c>
+      <c r="AG8" s="3">
+        <f t="shared" ref="AG7:AG56" si="2">(AE8/AE4-1)*100</f>
+        <v>5.5702289598947408</v>
+      </c>
+      <c r="AH8" s="3">
         <v>18274163000</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AI8" s="3">
         <v>25874993000</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -1530,17 +1635,29 @@
       <c r="AC9">
         <v>40</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="5">
+        <f t="shared" si="0"/>
+        <v>53687844000</v>
+      </c>
+      <c r="AE9" s="3">
         <v>50301950000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.9085230848340369</v>
+      </c>
+      <c r="AG9" s="3">
+        <f t="shared" si="2"/>
+        <v>3.3992193106569424</v>
+      </c>
+      <c r="AH9" s="3">
         <v>16722631999.999998</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AI9" s="3">
         <v>26211561000</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -1625,17 +1742,29 @@
       <c r="AC10">
         <v>48.1</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="5">
+        <f t="shared" si="0"/>
+        <v>64559632410</v>
+      </c>
+      <c r="AE10" s="3">
         <v>51435920000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2543261245339341</v>
+      </c>
+      <c r="AG10" s="3">
+        <f t="shared" si="2"/>
+        <v>2.7332897760763863</v>
+      </c>
+      <c r="AH10" s="3">
         <v>16616789000</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AI10" s="3">
         <v>26225258000</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -1720,17 +1849,29 @@
       <c r="AC11">
         <v>52</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD11" s="5">
+        <f t="shared" si="0"/>
+        <v>69794197200</v>
+      </c>
+      <c r="AE11" s="3">
         <v>51962117000</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AF11" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0230146559058406</v>
+      </c>
+      <c r="AG11" s="3">
+        <f t="shared" si="2"/>
+        <v>1.401769661994412</v>
+      </c>
+      <c r="AH11" s="3">
         <v>16637050000</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AI11" s="3">
         <v>26005346000</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -1815,17 +1956,29 @@
       <c r="AC12">
         <v>65</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AD12" s="5">
+        <f t="shared" si="0"/>
+        <v>87242746500</v>
+      </c>
+      <c r="AE12" s="3">
         <v>59168045000</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
+        <f t="shared" si="1"/>
+        <v>13.867656700746057</v>
+      </c>
+      <c r="AG12" s="3">
+        <f t="shared" si="2"/>
+        <v>13.028318588702836</v>
+      </c>
+      <c r="AH12" s="3">
         <v>21820908000</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AI12" s="3">
         <v>26743007000</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -1913,17 +2066,29 @@
       <c r="AC13">
         <v>66.5</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AD13" s="5">
+        <f t="shared" si="0"/>
+        <v>89256040650</v>
+      </c>
+      <c r="AE13" s="3">
         <v>57372040000</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AF13" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.0354306957412591</v>
+      </c>
+      <c r="AG13" s="3">
+        <f t="shared" si="2"/>
+        <v>14.055300043040075</v>
+      </c>
+      <c r="AH13" s="3">
         <v>20119673000.000004</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AI13" s="3">
         <v>26803774000</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2010</v>
       </c>
@@ -2011,17 +2176,29 @@
       <c r="AC14">
         <v>65.599999999999994</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD14" s="5">
+        <f t="shared" si="0"/>
+        <v>88048064160</v>
+      </c>
+      <c r="AE14" s="3">
         <v>61820225000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7532278789459008</v>
+      </c>
+      <c r="AG14" s="3">
+        <f t="shared" si="2"/>
+        <v>20.188819408693369</v>
+      </c>
+      <c r="AH14" s="3">
         <v>23051228000.000004</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AI14" s="3">
         <v>27251060000</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -2109,17 +2286,29 @@
       <c r="AC15">
         <v>70.989999999999995</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AD15" s="5">
+        <f t="shared" si="0"/>
+        <v>95282501139</v>
+      </c>
+      <c r="AE15" s="3">
         <v>63075552000</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0306089148009354</v>
+      </c>
+      <c r="AG15" s="3">
+        <f t="shared" si="2"/>
+        <v>21.387571641855942</v>
+      </c>
+      <c r="AH15" s="3">
         <v>23364449000</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AI15" s="3">
         <v>27847307000</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2010</v>
       </c>
@@ -2207,17 +2396,29 @@
       <c r="AC16">
         <v>84</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AD16" s="5">
+        <f t="shared" si="0"/>
+        <v>112744472400</v>
+      </c>
+      <c r="AE16" s="3">
         <v>68277570000.000008</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AF16" s="3">
+        <f t="shared" si="1"/>
+        <v>8.2472809750440348</v>
+      </c>
+      <c r="AG16" s="3">
+        <f t="shared" si="2"/>
+        <v>15.396021619440026</v>
+      </c>
+      <c r="AH16" s="3">
         <v>26290426000</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AI16" s="3">
         <v>28469868000</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2011</v>
       </c>
@@ -2305,17 +2506,29 @@
       <c r="AC17">
         <v>87.98</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AD17" s="5">
+        <f t="shared" si="0"/>
+        <v>118086412878</v>
+      </c>
+      <c r="AE17" s="3">
         <v>65042546000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.7380479416593291</v>
+      </c>
+      <c r="AG17" s="3">
+        <f t="shared" si="2"/>
+        <v>13.369763389971844</v>
+      </c>
+      <c r="AH17" s="3">
         <v>22889128000</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AI17" s="3">
         <v>29157926000</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -2403,17 +2616,29 @@
       <c r="AC18">
         <v>94.96</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="5">
+        <f t="shared" si="0"/>
+        <v>127454941655.99998</v>
+      </c>
+      <c r="AE18" s="3">
         <v>66577694000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3602212619413754</v>
+      </c>
+      <c r="AG18" s="3">
+        <f t="shared" si="2"/>
+        <v>7.6956513826987871</v>
+      </c>
+      <c r="AH18" s="3">
         <v>22529116000</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AI18" s="3">
         <v>29979473000</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -2501,17 +2726,29 @@
       <c r="AC19">
         <v>91.1</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AD19" s="5">
+        <f t="shared" si="0"/>
+        <v>122274064710</v>
+      </c>
+      <c r="AE19" s="3">
         <v>68093899000.000008</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AF19" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2773468242982542</v>
+      </c>
+      <c r="AG19" s="3">
+        <f t="shared" si="2"/>
+        <v>7.9560889138156288</v>
+      </c>
+      <c r="AH19" s="3">
         <v>22863370000.000004</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AI19" s="3">
         <v>31072180000</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -2599,17 +2836,29 @@
       <c r="AC20">
         <v>99.07</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AD20" s="5">
+        <f t="shared" si="0"/>
+        <v>132971367626.99998</v>
+      </c>
+      <c r="AE20" s="3">
         <v>73023059000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
+        <f t="shared" si="1"/>
+        <v>7.2387689240705599</v>
+      </c>
+      <c r="AG20" s="3">
+        <f t="shared" si="2"/>
+        <v>6.9502898243156475</v>
+      </c>
+      <c r="AH20" s="3">
         <v>25521319000.000004</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AI20" s="3">
         <v>22319405000</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2012</v>
       </c>
@@ -2697,17 +2946,29 @@
       <c r="AC21">
         <v>103.24</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="5">
+        <f t="shared" si="0"/>
+        <v>138568325364</v>
+      </c>
+      <c r="AE21" s="3">
         <v>75697980000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
+        <f t="shared" si="1"/>
+        <v>3.6631182487164793</v>
+      </c>
+      <c r="AG21" s="3">
+        <f t="shared" si="2"/>
+        <v>16.382252318351753</v>
+      </c>
+      <c r="AH21" s="3">
         <v>32354784000</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AI21" s="3">
         <v>23092035000</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2012</v>
       </c>
@@ -2795,17 +3056,29 @@
       <c r="AC22">
         <v>104.06</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AD22" s="5">
+        <f t="shared" si="0"/>
+        <v>139668926166</v>
+      </c>
+      <c r="AE22" s="3">
         <v>78186019000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2867970849420391</v>
+      </c>
+      <c r="AG22" s="3">
+        <f t="shared" si="2"/>
+        <v>17.435757087050806</v>
+      </c>
+      <c r="AH22" s="3">
         <v>33060250000</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AI22" s="3">
         <v>24408871000</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2012</v>
       </c>
@@ -2893,17 +3166,29 @@
       <c r="AC23">
         <v>117.35</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AD23" s="5">
+        <f t="shared" si="0"/>
+        <v>157506712335</v>
+      </c>
+      <c r="AE23" s="3">
         <v>79691780000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9258698924164541</v>
+      </c>
+      <c r="AG23" s="3">
+        <f t="shared" si="2"/>
+        <v>17.032188155358806</v>
+      </c>
+      <c r="AH23" s="3">
         <v>33237987000</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AI23" s="3">
         <v>25422870000</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2012</v>
       </c>
@@ -2991,17 +3276,29 @@
       <c r="AC24">
         <v>140.91</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AD24" s="5">
+        <f t="shared" si="0"/>
+        <v>189128852451</v>
+      </c>
+      <c r="AE24" s="3">
         <v>85109854000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
+        <f t="shared" si="1"/>
+        <v>6.7987865247833623</v>
+      </c>
+      <c r="AG24" s="3">
+        <f t="shared" si="2"/>
+        <v>16.552025025410131</v>
+      </c>
+      <c r="AH24" s="3">
         <v>35580144000</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AI24" s="3">
         <v>26490563000</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -3089,17 +3386,29 @@
       <c r="AC25">
         <v>153.55000000000001</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AD25" s="5">
+        <f t="shared" si="0"/>
+        <v>206094211155</v>
+      </c>
+      <c r="AE25" s="3">
         <v>85057440000</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AF25" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.1583938329867749E-2</v>
+      </c>
+      <c r="AG25" s="3">
+        <f t="shared" si="2"/>
+        <v>12.364213681791769</v>
+      </c>
+      <c r="AH25" s="3">
         <v>35535365000.000008</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AI25" s="3">
         <v>26910505000</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2013</v>
       </c>
@@ -3187,17 +3496,29 @@
       <c r="AC26">
         <v>147.35</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AD26" s="5">
+        <f t="shared" si="0"/>
+        <v>197772595335</v>
+      </c>
+      <c r="AE26" s="3">
         <v>87154651000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4656408657490747</v>
+      </c>
+      <c r="AG26" s="3">
+        <f t="shared" si="2"/>
+        <v>11.470889699602171</v>
+      </c>
+      <c r="AH26" s="3">
         <v>35757854999.999992</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AI26" s="3">
         <v>27501258000</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2013</v>
       </c>
@@ -3285,17 +3606,29 @@
       <c r="AC27">
         <v>140.91</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AD27" s="5">
+        <f t="shared" si="0"/>
+        <v>189128852451</v>
+      </c>
+      <c r="AE27" s="3">
         <v>90716703000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
+        <f t="shared" si="1"/>
+        <v>4.0870475174067389</v>
+      </c>
+      <c r="AG27" s="3">
+        <f t="shared" si="2"/>
+        <v>13.83445444436051</v>
+      </c>
+      <c r="AH27" s="3">
         <v>38075632000</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AI27" s="3">
         <v>28103431000</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -3383,17 +3716,29 @@
       <c r="AC28">
         <v>140.32</v>
       </c>
-      <c r="AD28" s="3">
+      <c r="AD28" s="5">
+        <f t="shared" si="0"/>
+        <v>188336956752</v>
+      </c>
+      <c r="AE28" s="3">
         <v>94581445000</v>
       </c>
-      <c r="AE28" s="3">
+      <c r="AF28" s="3">
+        <f t="shared" si="1"/>
+        <v>4.260231988369334</v>
+      </c>
+      <c r="AG28" s="3">
+        <f t="shared" si="2"/>
+        <v>11.128665547939963</v>
+      </c>
+      <c r="AH28" s="3">
         <v>39754113000</v>
       </c>
-      <c r="AF28" s="3">
+      <c r="AI28" s="3">
         <v>29054263000</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2014</v>
       </c>
@@ -3481,17 +3826,29 @@
       <c r="AC29">
         <v>134.72999999999999</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AD29" s="5">
+        <f t="shared" si="0"/>
+        <v>180834080553</v>
+      </c>
+      <c r="AE29" s="3">
         <v>93078291000</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.5892694386303807</v>
+      </c>
+      <c r="AG29" s="3">
+        <f t="shared" si="2"/>
+        <v>9.4299228850527328</v>
+      </c>
+      <c r="AH29" s="3">
         <v>37245358000</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AI29" s="3">
         <v>29366196000</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2014</v>
       </c>
@@ -3579,17 +3936,29 @@
       <c r="AC30">
         <v>147.16</v>
       </c>
-      <c r="AD30" s="3">
+      <c r="AD30" s="5">
+        <f t="shared" si="0"/>
+        <v>197517578076</v>
+      </c>
+      <c r="AE30" s="3">
         <v>94824271000</v>
       </c>
-      <c r="AE30" s="3">
+      <c r="AF30" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8758187126577175</v>
+      </c>
+      <c r="AG30" s="3">
+        <f t="shared" si="2"/>
+        <v>8.8000122907955891</v>
+      </c>
+      <c r="AH30" s="3">
         <v>37265175000</v>
       </c>
-      <c r="AF30" s="3">
+      <c r="AI30" s="3">
         <v>29589636000</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -3677,17 +4046,29 @@
       <c r="AC31">
         <v>157.99</v>
       </c>
-      <c r="AD31" s="3">
+      <c r="AD31" s="5">
+        <f t="shared" si="0"/>
+        <v>212053561839</v>
+      </c>
+      <c r="AE31" s="3">
         <v>95908991000</v>
       </c>
-      <c r="AE31" s="3">
+      <c r="AF31" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1439265375422725</v>
+      </c>
+      <c r="AG31" s="3">
+        <f t="shared" si="2"/>
+        <v>5.7236295282909522</v>
+      </c>
+      <c r="AH31" s="3">
         <v>37111667000</v>
       </c>
-      <c r="AF31" s="3">
+      <c r="AI31" s="3">
         <v>29701591000</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2014</v>
       </c>
@@ -3775,17 +4156,29 @@
       <c r="AC32">
         <v>153.57</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AD32" s="5">
+        <f t="shared" si="0"/>
+        <v>206121055077</v>
+      </c>
+      <c r="AE32" s="3">
         <v>103438257000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
+        <f t="shared" si="1"/>
+        <v>7.8504277039052495</v>
+      </c>
+      <c r="AG32" s="3">
+        <f t="shared" si="2"/>
+        <v>9.3642172626988263</v>
+      </c>
+      <c r="AH32" s="3">
         <v>40771836000</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AI32" s="3">
         <v>30390283000</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -3873,17 +4266,29 @@
       <c r="AC33">
         <v>168.53</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AD33" s="5">
+        <f t="shared" si="0"/>
+        <v>226200308733</v>
+      </c>
+      <c r="AE33" s="3">
         <v>101084400000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.2756154910846926</v>
+      </c>
+      <c r="AG33" s="3">
+        <f t="shared" si="2"/>
+        <v>8.6014782974474624</v>
+      </c>
+      <c r="AH33" s="3">
         <v>38124765000</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AI33" s="3">
         <v>30545364000</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2015</v>
       </c>
@@ -3971,17 +4376,29 @@
       <c r="AC34">
         <v>188.6</v>
       </c>
-      <c r="AD34" s="3">
+      <c r="AD34" s="5">
+        <f t="shared" si="0"/>
+        <v>253138184460</v>
+      </c>
+      <c r="AE34" s="3">
         <v>104402678000</v>
       </c>
-      <c r="AE34" s="3">
+      <c r="AF34" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2826806114494511</v>
+      </c>
+      <c r="AG34" s="3">
+        <f t="shared" si="2"/>
+        <v>10.101218705915493</v>
+      </c>
+      <c r="AH34" s="3">
         <v>39547115999.999992</v>
       </c>
-      <c r="AF34" s="3">
+      <c r="AI34" s="3">
         <v>31064514000</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2015</v>
       </c>
@@ -4069,17 +4486,29 @@
       <c r="AC35">
         <v>229.39</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AD35" s="5">
+        <f t="shared" si="0"/>
+        <v>307886363379</v>
+      </c>
+      <c r="AE35" s="3">
         <v>107136275000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
+        <f t="shared" si="1"/>
+        <v>2.6183207675956277</v>
+      </c>
+      <c r="AG35" s="3">
+        <f t="shared" si="2"/>
+        <v>11.706185085400378</v>
+      </c>
+      <c r="AH35" s="3">
         <v>40835957000</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AI35" s="3">
         <v>31108953000</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2015</v>
       </c>
@@ -4167,17 +4596,29 @@
       <c r="AC36">
         <v>216.36</v>
       </c>
-      <c r="AD36" s="3">
+      <c r="AD36" s="5">
+        <f t="shared" si="0"/>
+        <v>290397548196</v>
+      </c>
+      <c r="AE36" s="3">
         <v>115001121000</v>
       </c>
-      <c r="AE36" s="3">
+      <c r="AF36" s="3">
+        <f t="shared" si="1"/>
+        <v>7.3409739138307728</v>
+      </c>
+      <c r="AG36" s="3">
+        <f t="shared" si="2"/>
+        <v>11.178517828273149</v>
+      </c>
+      <c r="AH36" s="3">
         <v>44141670000</v>
       </c>
-      <c r="AF36" s="3">
+      <c r="AI36" s="3">
         <v>31924823000</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2016</v>
       </c>
@@ -4265,17 +4706,29 @@
       <c r="AC37">
         <v>195.57</v>
       </c>
-      <c r="AD37" s="3">
+      <c r="AD37" s="5">
+        <f t="shared" si="0"/>
+        <v>262493291277</v>
+      </c>
+      <c r="AE37" s="3">
         <v>111836265000</v>
       </c>
-      <c r="AE37" s="3">
+      <c r="AF37" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.7520218694216059</v>
+      </c>
+      <c r="AG37" s="3">
+        <f t="shared" si="2"/>
+        <v>10.636522549473515</v>
+      </c>
+      <c r="AH37" s="3">
         <v>40750129000</v>
       </c>
-      <c r="AF37" s="3">
+      <c r="AI37" s="3">
         <v>32266860000</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2016</v>
       </c>
@@ -4363,17 +4816,29 @@
       <c r="AC38">
         <v>181.73</v>
       </c>
-      <c r="AD38" s="3">
+      <c r="AD38" s="5">
+        <f t="shared" si="0"/>
+        <v>243917297253</v>
+      </c>
+      <c r="AE38" s="3">
         <v>116151807000</v>
       </c>
-      <c r="AE38" s="3">
+      <c r="AF38" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8588037610161496</v>
+      </c>
+      <c r="AG38" s="3">
+        <f t="shared" si="2"/>
+        <v>11.253666309210963</v>
+      </c>
+      <c r="AH38" s="3">
         <v>42631042000</v>
       </c>
-      <c r="AF38" s="3">
+      <c r="AI38" s="3">
         <v>32956091999.999996</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2016</v>
       </c>
@@ -4461,17 +4926,29 @@
       <c r="AC39">
         <v>196.12</v>
       </c>
-      <c r="AD39" s="3">
+      <c r="AD39" s="5">
+        <f t="shared" si="0"/>
+        <v>263231499132</v>
+      </c>
+      <c r="AE39" s="3">
         <v>134911371000.00002</v>
       </c>
-      <c r="AE39" s="3">
+      <c r="AF39" s="3">
+        <f t="shared" si="1"/>
+        <v>16.150901552482956</v>
+      </c>
+      <c r="AG39" s="3">
+        <f t="shared" si="2"/>
+        <v>25.925015593457967</v>
+      </c>
+      <c r="AH39" s="3">
         <v>59968902000</v>
       </c>
-      <c r="AF39" s="3">
+      <c r="AI39" s="3">
         <v>33937792999.999996</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2016</v>
       </c>
@@ -4559,17 +5036,29 @@
       <c r="AC40">
         <v>131.58000000000001</v>
       </c>
-      <c r="AD40" s="3">
+      <c r="AD40" s="5">
+        <f t="shared" si="0"/>
+        <v>176606162838.00003</v>
+      </c>
+      <c r="AE40" s="3">
         <v>148400611000</v>
       </c>
-      <c r="AE40" s="3">
+      <c r="AF40" s="3">
+        <f t="shared" si="1"/>
+        <v>9.9985938175663378</v>
+      </c>
+      <c r="AG40" s="3">
+        <f t="shared" si="2"/>
+        <v>29.042751678916233</v>
+      </c>
+      <c r="AH40" s="3">
         <v>66652004000</v>
       </c>
-      <c r="AF40" s="3">
+      <c r="AI40" s="3">
         <v>35463509000</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2017</v>
       </c>
@@ -4657,17 +5146,29 @@
       <c r="AC41">
         <v>145.41999999999999</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AD41" s="5">
+        <f t="shared" si="0"/>
+        <v>195182156861.99997</v>
+      </c>
+      <c r="AE41" s="3">
         <v>140653037000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
+        <f t="shared" si="1"/>
+        <v>-5.2207157017702617</v>
+      </c>
+      <c r="AG41" s="3">
+        <f t="shared" si="2"/>
+        <v>25.76692989523568</v>
+      </c>
+      <c r="AH41" s="3">
         <v>60670655000</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AI41" s="3">
         <v>36053414000</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -4755,17 +5256,29 @@
       <c r="AC42">
         <v>160.09</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AD42" s="5">
+        <f t="shared" si="0"/>
+        <v>214872173649</v>
+      </c>
+      <c r="AE42" s="3">
         <v>150043739000</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
+        <f t="shared" si="1"/>
+        <v>6.676501411057334</v>
+      </c>
+      <c r="AG42" s="3">
+        <f t="shared" si="2"/>
+        <v>29.178996758957009</v>
+      </c>
+      <c r="AH42" s="3">
         <v>67908343000.000008</v>
       </c>
-      <c r="AF42" s="3">
+      <c r="AI42" s="3">
         <v>43198845000</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2017</v>
       </c>
@@ -4853,17 +5366,29 @@
       <c r="AC43">
         <v>130.6</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AD43" s="5">
+        <f t="shared" si="0"/>
+        <v>175290810660</v>
+      </c>
+      <c r="AE43" s="3">
         <v>156494173000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
+        <f t="shared" si="1"/>
+        <v>4.2990357631650378</v>
+      </c>
+      <c r="AG43" s="3">
+        <f t="shared" si="2"/>
+        <v>15.997763450198722</v>
+      </c>
+      <c r="AH43" s="3">
         <v>74956446000</v>
       </c>
-      <c r="AF43" s="3">
+      <c r="AI43" s="3">
         <v>43790335000</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2017</v>
       </c>
@@ -4951,17 +5476,29 @@
       <c r="AC44">
         <v>137.76</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AD44" s="5">
+        <f t="shared" si="0"/>
+        <v>184900934736</v>
+      </c>
+      <c r="AE44" s="3">
         <v>168226751000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
+        <f t="shared" si="1"/>
+        <v>7.4971340945710452</v>
+      </c>
+      <c r="AG44" s="3">
+        <f t="shared" si="2"/>
+        <v>13.359877608590164</v>
+      </c>
+      <c r="AH44" s="3">
         <v>78144374000.000015</v>
       </c>
-      <c r="AF44" s="3">
+      <c r="AI44" s="3">
         <v>43855877000</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -5004,17 +5541,29 @@
       <c r="AC45">
         <v>124.78</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AD45" s="5">
+        <f t="shared" si="0"/>
+        <v>167479229358</v>
+      </c>
+      <c r="AE45" s="3">
         <v>160154492000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.7984395775437676</v>
+      </c>
+      <c r="AG45" s="3">
+        <f t="shared" si="2"/>
+        <v>13.864937022298363</v>
+      </c>
+      <c r="AH45" s="3">
         <v>71869485000</v>
       </c>
-      <c r="AF45" s="3">
+      <c r="AI45" s="3">
         <v>44449176000</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -5057,17 +5606,29 @@
       <c r="AC46">
         <v>138.31</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AD46" s="5">
+        <f t="shared" si="0"/>
+        <v>185639142591</v>
+      </c>
+      <c r="AE46" s="3">
         <v>162743536000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6165915596048297</v>
+      </c>
+      <c r="AG46" s="3">
+        <f t="shared" si="2"/>
+        <v>8.4640632689112039</v>
+      </c>
+      <c r="AH46" s="3">
         <v>70653465000</v>
       </c>
-      <c r="AF46" s="3">
+      <c r="AI46" s="3">
         <v>45225971000</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -5110,17 +5671,29 @@
       <c r="AC47">
         <v>128.72999999999999</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AD47" s="5">
+        <f t="shared" si="0"/>
+        <v>172780903953</v>
+      </c>
+      <c r="AE47" s="3">
         <v>162626317000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
+        <f t="shared" si="1"/>
+        <v>-7.2026823848780896E-2</v>
+      </c>
+      <c r="AG47" s="3">
+        <f t="shared" si="2"/>
+        <v>3.9184487718913363</v>
+      </c>
+      <c r="AH47" s="3">
         <v>69194473000</v>
       </c>
-      <c r="AF47" s="3">
+      <c r="AI47" s="3">
         <v>46352924000</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -5163,17 +5736,29 @@
       <c r="AC48">
         <v>125.22</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AD48" s="5">
+        <f t="shared" si="0"/>
+        <v>168069795642</v>
+      </c>
+      <c r="AE48" s="3">
         <v>174622774000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
+        <f t="shared" si="1"/>
+        <v>7.3767009062869038</v>
+      </c>
+      <c r="AG48" s="3">
+        <f t="shared" si="2"/>
+        <v>3.8020249228970737</v>
+      </c>
+      <c r="AH48" s="3">
         <v>73922485000</v>
       </c>
-      <c r="AF48" s="3">
+      <c r="AI48" s="3">
         <v>47115104000</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2019</v>
       </c>
@@ -5216,17 +5801,29 @@
       <c r="AC49">
         <v>122.72</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AD49" s="5">
+        <f t="shared" si="0"/>
+        <v>164714305392</v>
+      </c>
+      <c r="AE49" s="3">
         <v>179134981000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5839739551955621</v>
+      </c>
+      <c r="AG49" s="3">
+        <f t="shared" si="2"/>
+        <v>11.851362245899422</v>
+      </c>
+      <c r="AH49" s="3">
         <v>79414540000.000015</v>
       </c>
-      <c r="AF49" s="3">
+      <c r="AI49" s="3">
         <v>47330100000</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2019</v>
       </c>
@@ -5269,17 +5866,29 @@
       <c r="AC50">
         <v>93.08</v>
       </c>
-      <c r="AD50" s="3">
+      <c r="AD50" s="5">
+        <f t="shared" si="0"/>
+        <v>124931612988</v>
+      </c>
+      <c r="AE50" s="3">
         <v>185673378000</v>
       </c>
-      <c r="AE50" s="3">
+      <c r="AF50" s="3">
+        <f t="shared" si="1"/>
+        <v>3.6499833608713228</v>
+      </c>
+      <c r="AG50" s="3">
+        <f t="shared" si="2"/>
+        <v>14.089556220530941</v>
+      </c>
+      <c r="AH50" s="3">
         <v>83754972000.000015</v>
       </c>
-      <c r="AF50" s="3">
+      <c r="AI50" s="3">
         <v>48379799000</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2019</v>
       </c>
@@ -5322,17 +5931,29 @@
       <c r="AC51">
         <v>98.02</v>
       </c>
-      <c r="AD51" s="3">
+      <c r="AD51" s="5">
+        <f t="shared" si="0"/>
+        <v>131562061722</v>
+      </c>
+      <c r="AE51" s="3">
         <v>186654437000</v>
       </c>
-      <c r="AE51" s="3">
+      <c r="AF51" s="3">
+        <f t="shared" si="1"/>
+        <v>0.52837892570682943</v>
+      </c>
+      <c r="AG51" s="3">
+        <f t="shared" si="2"/>
+        <v>14.775050215273588</v>
+      </c>
+      <c r="AH51" s="3">
         <v>83177277000</v>
       </c>
-      <c r="AF51" s="3">
+      <c r="AI51" s="3">
         <v>49599458000</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2019</v>
       </c>
@@ -5375,17 +5996,29 @@
       <c r="AC52">
         <v>99.84</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AD52" s="5">
+        <f t="shared" si="0"/>
+        <v>134004858624</v>
+      </c>
+      <c r="AE52" s="3">
         <v>200561867000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
+        <f t="shared" si="1"/>
+        <v>7.4508970820768683</v>
+      </c>
+      <c r="AG52" s="3">
+        <f t="shared" si="2"/>
+        <v>14.854358572954517</v>
+      </c>
+      <c r="AH52" s="3">
         <v>91487326000</v>
       </c>
-      <c r="AF52" s="3">
+      <c r="AI52" s="3">
         <v>50255601000</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2020</v>
       </c>
@@ -5428,17 +6061,29 @@
       <c r="AC53">
         <v>60.71</v>
       </c>
-      <c r="AD53" s="3">
+      <c r="AD53" s="5">
+        <f t="shared" si="0"/>
+        <v>81484725231</v>
+      </c>
+      <c r="AE53" s="3">
         <v>200381629000</v>
       </c>
-      <c r="AE53" s="3">
+      <c r="AF53" s="3">
+        <f t="shared" si="1"/>
+        <v>-8.986653479846618E-2</v>
+      </c>
+      <c r="AG53" s="3">
+        <f t="shared" si="2"/>
+        <v>11.860691798661026</v>
+      </c>
+      <c r="AH53" s="3">
         <v>91307749000.000015</v>
       </c>
-      <c r="AF53" s="3">
+      <c r="AI53" s="3">
         <v>49902736000</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2020</v>
       </c>
@@ -5481,17 +6126,29 @@
       <c r="AC54">
         <v>54.56</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AD54" s="5">
+        <f t="shared" si="0"/>
+        <v>73230219216</v>
+      </c>
+      <c r="AE54" s="3">
         <v>187477823000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.4396152803009699</v>
+      </c>
+      <c r="AG54" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97183829983424896</v>
+      </c>
+      <c r="AH54" s="3">
         <v>82420014000</v>
       </c>
-      <c r="AF54" s="3">
+      <c r="AI54" s="3">
         <v>50157635000</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2020</v>
       </c>
@@ -5534,17 +6191,29 @@
       <c r="AC55">
         <v>57.09</v>
       </c>
-      <c r="AD55" s="3">
+      <c r="AD55" s="5">
+        <f t="shared" si="0"/>
+        <v>76625975349</v>
+      </c>
+      <c r="AE55" s="3">
         <v>201066530000</v>
       </c>
-      <c r="AE55" s="3">
+      <c r="AF55" s="3">
+        <f t="shared" si="1"/>
+        <v>7.2481676939463835</v>
+      </c>
+      <c r="AG55" s="3">
+        <f t="shared" si="2"/>
+        <v>7.7212699744180213</v>
+      </c>
+      <c r="AH55" s="3">
         <v>95838575000</v>
       </c>
-      <c r="AF55" s="3">
+      <c r="AI55" s="3">
         <v>50686187000</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2020</v>
       </c>
@@ -5587,13 +6256,25 @@
       <c r="AC56">
         <v>65.510000000000005</v>
       </c>
-      <c r="AD56" s="3">
+      <c r="AD56" s="5">
+        <f t="shared" si="0"/>
+        <v>87927266511</v>
+      </c>
+      <c r="AE56" s="3">
         <v>204843372000</v>
       </c>
-      <c r="AE56" s="3">
+      <c r="AF56" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8784041282256192</v>
+      </c>
+      <c r="AG56" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1347552573391271</v>
+      </c>
+      <c r="AH56" s="3">
         <v>97023341000</v>
       </c>
-      <c r="AF56" s="3">
+      <c r="AI56" s="3">
         <v>50684928000</v>
       </c>
     </row>

--- a/Datos Tarea 2/bd_liverpool.xlsx
+++ b/Datos Tarea 2/bd_liverpool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0066b8dfbbc5c50e/Documents/GitHub/TareasMacro2/Datos Tarea 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{CB1FE521-11FE-AF4D-8BAC-2FE06A31D9D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3D1876BF-35C1-4B55-88A3-E7F4EC41D547}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{CB1FE521-11FE-AF4D-8BAC-2FE06A31D9D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BAC3C0AB-8C54-4640-ABE3-01946B953FAE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE66C54F-DE35-6443-A6DD-85AD5D45F405}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="96">
   <si>
     <t>Anio</t>
   </si>
@@ -309,13 +309,19 @@
     <t>capitalización</t>
   </si>
   <si>
-    <t>tasa_trim_trim</t>
-  </si>
-  <si>
-    <t>tasa_trim_anual</t>
-  </si>
-  <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>tasa_activos_trimtrim</t>
+  </si>
+  <si>
+    <t>tasa_activos_trimanual</t>
+  </si>
+  <si>
+    <t>tasa_capital_trimtrim</t>
+  </si>
+  <si>
+    <t>tasa_capital_trimanual</t>
   </si>
 </sst>
 </file>
@@ -370,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -378,6 +384,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -694,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A6A4D5-213C-4149-BE2C-28F9D0B1E31A}">
-  <dimension ref="A1:AI56"/>
+  <dimension ref="A1:AK56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView tabSelected="1" topLeftCell="AB31" zoomScale="89" workbookViewId="0">
+      <selection activeCell="AI42" sqref="AI42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -708,10 +717,11 @@
     <col min="30" max="30" width="17.296875" customWidth="1"/>
     <col min="31" max="33" width="22.5" customWidth="1"/>
     <col min="34" max="34" width="19" customWidth="1"/>
-    <col min="35" max="35" width="21.296875" customWidth="1"/>
+    <col min="35" max="36" width="21.296875" customWidth="1"/>
+    <col min="37" max="37" width="20.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -806,10 +816,10 @@
         <v>87</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH1" s="4" t="s">
         <v>88</v>
@@ -817,8 +827,14 @@
       <c r="AI1" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="AJ1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2007</v>
       </c>
@@ -893,10 +909,10 @@
         <v>43544314000</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AH2" s="3">
         <v>15320752000</v>
@@ -904,8 +920,14 @@
       <c r="AI2" s="3">
         <v>21791995000</v>
       </c>
+      <c r="AJ2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -1002,7 +1024,7 @@
         <v>3.8861147290091713</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AH3" s="3">
         <v>16075053000</v>
@@ -1010,8 +1032,15 @@
       <c r="AI3" s="3">
         <v>22643548000</v>
       </c>
+      <c r="AJ3" s="3">
+        <f>(AI3/AI2-1)*100</f>
+        <v>3.9076413150792355</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -1108,7 +1137,7 @@
         <v>9.6148848487292113</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AH4" s="3">
         <v>18195389000</v>
@@ -1116,8 +1145,15 @@
       <c r="AI4" s="3">
         <v>23727162000</v>
       </c>
+      <c r="AJ4" s="3">
+        <f t="shared" ref="AJ4:AJ56" si="2">(AI4/AI3-1)*100</f>
+        <v>4.7855309600774554</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -1214,7 +1250,7 @@
         <v>-1.8909495965317435</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AH5" s="3">
         <v>17417195000</v>
@@ -1222,8 +1258,15 @@
       <c r="AI5" s="3">
         <v>24354131000</v>
       </c>
+      <c r="AJ5" s="3">
+        <f t="shared" si="2"/>
+        <v>2.6424104155397865</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2008</v>
       </c>
@@ -1329,8 +1372,16 @@
       <c r="AI6" s="3">
         <v>24354090000</v>
       </c>
+      <c r="AJ6" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.6834926279685192E-4</v>
+      </c>
+      <c r="AK6">
+        <f>(AI6/AI2-1)*100</f>
+        <v>11.757046566870088</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -1439,8 +1490,16 @@
       <c r="AI7" s="3">
         <v>25116063000</v>
       </c>
+      <c r="AJ7" s="3">
+        <f t="shared" si="2"/>
+        <v>3.1287270433836722</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" ref="AK7:AK56" si="3">(AI7/AI3-1)*100</f>
+        <v>10.919291446729119</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -1537,7 +1596,7 @@
         <v>2.1547700690485616</v>
       </c>
       <c r="AG8" s="3">
-        <f t="shared" ref="AG7:AG56" si="2">(AE8/AE4-1)*100</f>
+        <f t="shared" ref="AG8:AG56" si="4">(AE8/AE4-1)*100</f>
         <v>5.5702289598947408</v>
       </c>
       <c r="AH8" s="3">
@@ -1546,8 +1605,16 @@
       <c r="AI8" s="3">
         <v>25874993000</v>
       </c>
+      <c r="AJ8" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0216917356832518</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="3"/>
+        <v>9.0522035462985428</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -1647,7 +1714,7 @@
         <v>-3.9085230848340369</v>
       </c>
       <c r="AG9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.3992193106569424</v>
       </c>
       <c r="AH9" s="3">
@@ -1656,8 +1723,16 @@
       <c r="AI9" s="3">
         <v>26211561000</v>
       </c>
+      <c r="AJ9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3007462456125163</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="3"/>
+        <v>7.6267553952140688</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -1754,7 +1829,7 @@
         <v>2.2543261245339341</v>
       </c>
       <c r="AG10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7332897760763863</v>
       </c>
       <c r="AH10" s="3">
@@ -1763,8 +1838,16 @@
       <c r="AI10" s="3">
         <v>26225258000</v>
       </c>
+      <c r="AJ10" s="3">
+        <f t="shared" si="2"/>
+        <v>5.2255567686332327E-2</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="3"/>
+        <v>7.6831776510639438</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -1861,7 +1944,7 @@
         <v>1.0230146559058406</v>
       </c>
       <c r="AG11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.401769661994412</v>
       </c>
       <c r="AH11" s="3">
@@ -1870,8 +1953,16 @@
       <c r="AI11" s="3">
         <v>26005346000</v>
       </c>
+      <c r="AJ11" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.83855037765501184</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="3"/>
+        <v>3.5406942561021504</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -1968,7 +2059,7 @@
         <v>13.867656700746057</v>
       </c>
       <c r="AG12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.028318588702836</v>
       </c>
       <c r="AH12" s="3">
@@ -1977,8 +2068,16 @@
       <c r="AI12" s="3">
         <v>26743007000</v>
       </c>
+      <c r="AJ12" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8365744489613709</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="3"/>
+        <v>3.3546443857975117</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -2078,7 +2177,7 @@
         <v>-3.0354306957412591</v>
       </c>
       <c r="AG13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.055300043040075</v>
       </c>
       <c r="AH13" s="3">
@@ -2087,8 +2186,16 @@
       <c r="AI13" s="3">
         <v>26803774000</v>
       </c>
+      <c r="AJ13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.22722575662490474</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="3"/>
+        <v>2.2593579985564327</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2010</v>
       </c>
@@ -2188,7 +2295,7 @@
         <v>7.7532278789459008</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20.188819408693369</v>
       </c>
       <c r="AH14" s="3">
@@ -2197,8 +2304,16 @@
       <c r="AI14" s="3">
         <v>27251060000</v>
       </c>
+      <c r="AJ14" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6687426181104303</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="3"/>
+        <v>3.9115039402090934</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -2298,7 +2413,7 @@
         <v>2.0306089148009354</v>
       </c>
       <c r="AG15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21.387571641855942</v>
       </c>
       <c r="AH15" s="3">
@@ -2307,8 +2422,16 @@
       <c r="AI15" s="3">
         <v>27847307000</v>
       </c>
+      <c r="AJ15" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1879772750124316</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="3"/>
+        <v>7.0830090089937681</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2010</v>
       </c>
@@ -2408,7 +2531,7 @@
         <v>8.2472809750440348</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.396021619440026</v>
       </c>
       <c r="AH16" s="3">
@@ -2417,8 +2540,16 @@
       <c r="AI16" s="3">
         <v>28469868000</v>
       </c>
+      <c r="AJ16" s="3">
+        <f t="shared" si="2"/>
+        <v>2.2356237175824578</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="3"/>
+        <v>6.4572431963241916</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2011</v>
       </c>
@@ -2518,7 +2649,7 @@
         <v>-4.7380479416593291</v>
       </c>
       <c r="AG17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.369763389971844</v>
       </c>
       <c r="AH17" s="3">
@@ -2527,8 +2658,16 @@
       <c r="AI17" s="3">
         <v>29157926000</v>
       </c>
+      <c r="AJ17" s="3">
+        <f t="shared" si="2"/>
+        <v>2.416793783518778</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="3"/>
+        <v>8.7829124361368027</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -2628,7 +2767,7 @@
         <v>2.3602212619413754</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.6956513826987871</v>
       </c>
       <c r="AH18" s="3">
@@ -2637,8 +2776,16 @@
       <c r="AI18" s="3">
         <v>29979473000</v>
       </c>
+      <c r="AJ18" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8175769428868236</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="3"/>
+        <v>10.012135307764169</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -2738,7 +2885,7 @@
         <v>2.2773468242982542</v>
       </c>
       <c r="AG19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.9560889138156288</v>
       </c>
       <c r="AH19" s="3">
@@ -2747,8 +2894,16 @@
       <c r="AI19" s="3">
         <v>31072180000</v>
       </c>
+      <c r="AJ19" s="3">
+        <f t="shared" si="2"/>
+        <v>3.6448505949387533</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="3"/>
+        <v>11.580556065977943</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -2848,7 +3003,7 @@
         <v>7.2387689240705599</v>
       </c>
       <c r="AG20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.9502898243156475</v>
       </c>
       <c r="AH20" s="3">
@@ -2857,8 +3012,16 @@
       <c r="AI20" s="3">
         <v>22319405000</v>
       </c>
+      <c r="AJ20" s="3">
+        <f t="shared" si="2"/>
+        <v>-28.169169334111732</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="3"/>
+        <v>-21.603412421862998</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2012</v>
       </c>
@@ -2958,7 +3121,7 @@
         <v>3.6631182487164793</v>
       </c>
       <c r="AG21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.382252318351753</v>
       </c>
       <c r="AH21" s="3">
@@ -2967,8 +3130,16 @@
       <c r="AI21" s="3">
         <v>23092035000</v>
       </c>
+      <c r="AJ21" s="3">
+        <f t="shared" si="2"/>
+        <v>3.4616962235328508</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="3"/>
+        <v>-20.803574986780614</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2012</v>
       </c>
@@ -3068,7 +3239,7 @@
         <v>3.2867970849420391</v>
       </c>
       <c r="AG22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.435757087050806</v>
       </c>
       <c r="AH22" s="3">
@@ -3077,8 +3248,16 @@
       <c r="AI22" s="3">
         <v>24408871000</v>
       </c>
+      <c r="AJ22" s="3">
+        <f t="shared" si="2"/>
+        <v>5.7025550151816429</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="3"/>
+        <v>-18.581387337929524</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2012</v>
       </c>
@@ -3178,7 +3357,7 @@
         <v>1.9258698924164541</v>
       </c>
       <c r="AG23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.032188155358806</v>
       </c>
       <c r="AH23" s="3">
@@ -3187,8 +3366,16 @@
       <c r="AI23" s="3">
         <v>25422870000</v>
       </c>
+      <c r="AJ23" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1542232739891993</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="3"/>
+        <v>-18.181247662700205</v>
+      </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2012</v>
       </c>
@@ -3288,7 +3475,7 @@
         <v>6.7987865247833623</v>
       </c>
       <c r="AG24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.552025025410131</v>
       </c>
       <c r="AH24" s="3">
@@ -3297,8 +3484,16 @@
       <c r="AI24" s="3">
         <v>26490563000</v>
       </c>
+      <c r="AJ24" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1997343336924509</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="3"/>
+        <v>18.688482063029909</v>
+      </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -3398,7 +3593,7 @@
         <v>-6.1583938329867749E-2</v>
       </c>
       <c r="AG25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.364213681791769</v>
       </c>
       <c r="AH25" s="3">
@@ -3407,8 +3602,16 @@
       <c r="AI25" s="3">
         <v>26910505000</v>
       </c>
+      <c r="AJ25" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5852513213856501</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="3"/>
+        <v>16.535874815710262</v>
+      </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2013</v>
       </c>
@@ -3508,7 +3711,7 @@
         <v>2.4656408657490747</v>
       </c>
       <c r="AG26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.470889699602171</v>
       </c>
       <c r="AH26" s="3">
@@ -3517,8 +3720,16 @@
       <c r="AI26" s="3">
         <v>27501258000</v>
       </c>
+      <c r="AJ26" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1952505164804625</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="3"/>
+        <v>12.669111160446533</v>
+      </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2013</v>
       </c>
@@ -3618,7 +3829,7 @@
         <v>4.0870475174067389</v>
       </c>
       <c r="AG27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.83445444436051</v>
       </c>
       <c r="AH27" s="3">
@@ -3627,8 +3838,16 @@
       <c r="AI27" s="3">
         <v>28103431000</v>
       </c>
+      <c r="AJ27" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1896198348453799</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="3"/>
+        <v>10.543896106143791</v>
+      </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -3728,7 +3947,7 @@
         <v>4.260231988369334</v>
       </c>
       <c r="AG28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.128665547939963</v>
       </c>
       <c r="AH28" s="3">
@@ -3737,8 +3956,16 @@
       <c r="AI28" s="3">
         <v>29054263000</v>
       </c>
+      <c r="AJ28" s="3">
+        <f t="shared" si="2"/>
+        <v>3.3833306687713671</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="3"/>
+        <v>9.6777860100595081</v>
+      </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2014</v>
       </c>
@@ -3838,7 +4065,7 @@
         <v>-1.5892694386303807</v>
       </c>
       <c r="AG29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.4299228850527328</v>
       </c>
       <c r="AH29" s="3">
@@ -3847,8 +4074,16 @@
       <c r="AI29" s="3">
         <v>29366196000</v>
       </c>
+      <c r="AJ29" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0736221393741863</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="3"/>
+        <v>9.1253991703240001</v>
+      </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2014</v>
       </c>
@@ -3948,7 +4183,7 @@
         <v>1.8758187126577175</v>
       </c>
       <c r="AG30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.8000122907955891</v>
       </c>
       <c r="AH30" s="3">
@@ -3957,8 +4192,16 @@
       <c r="AI30" s="3">
         <v>29589636000</v>
       </c>
+      <c r="AJ30" s="3">
+        <f t="shared" si="2"/>
+        <v>0.76087485079783246</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="3"/>
+        <v>7.5937544384333311</v>
+      </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -4058,7 +4301,7 @@
         <v>1.1439265375422725</v>
       </c>
       <c r="AG31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.7236295282909522</v>
       </c>
       <c r="AH31" s="3">
@@ -4067,8 +4310,16 @@
       <c r="AI31" s="3">
         <v>29701591000</v>
       </c>
+      <c r="AJ31" s="3">
+        <f t="shared" si="2"/>
+        <v>0.37835882807075727</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="3"/>
+        <v>5.6867077902338581</v>
+      </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2014</v>
       </c>
@@ -4168,7 +4419,7 @@
         <v>7.8504277039052495</v>
       </c>
       <c r="AG32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.3642172626988263</v>
       </c>
       <c r="AH32" s="3">
@@ -4177,8 +4428,16 @@
       <c r="AI32" s="3">
         <v>30390283000</v>
       </c>
+      <c r="AJ32" s="3">
+        <f t="shared" si="2"/>
+        <v>2.3187040721151853</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="3"/>
+        <v>4.598361348900859</v>
+      </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -4278,7 +4537,7 @@
         <v>-2.2756154910846926</v>
       </c>
       <c r="AG33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.6014782974474624</v>
       </c>
       <c r="AH33" s="3">
@@ -4287,8 +4546,16 @@
       <c r="AI33" s="3">
         <v>30545364000</v>
       </c>
+      <c r="AJ33" s="3">
+        <f t="shared" si="2"/>
+        <v>0.51029797912707231</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="3"/>
+        <v>4.0153923919870271</v>
+      </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2015</v>
       </c>
@@ -4388,7 +4655,7 @@
         <v>3.2826806114494511</v>
       </c>
       <c r="AG34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.101218705915493</v>
       </c>
       <c r="AH34" s="3">
@@ -4397,8 +4664,16 @@
       <c r="AI34" s="3">
         <v>31064514000</v>
       </c>
+      <c r="AJ34" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6996032523953541</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="3"/>
+        <v>4.9844411739299543</v>
+      </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2015</v>
       </c>
@@ -4498,7 +4773,7 @@
         <v>2.6183207675956277</v>
       </c>
       <c r="AG35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.706185085400378</v>
       </c>
       <c r="AH35" s="3">
@@ -4507,8 +4782,16 @@
       <c r="AI35" s="3">
         <v>31108953000</v>
       </c>
+      <c r="AJ35" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14305390388531514</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="3"/>
+        <v>4.7383387644116537</v>
+      </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2015</v>
       </c>
@@ -4608,7 +4891,7 @@
         <v>7.3409739138307728</v>
       </c>
       <c r="AG36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.178517828273149</v>
       </c>
       <c r="AH36" s="3">
@@ -4617,8 +4900,16 @@
       <c r="AI36" s="3">
         <v>31924823000</v>
       </c>
+      <c r="AJ36" s="3">
+        <f t="shared" si="2"/>
+        <v>2.6226212113278136</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="3"/>
+        <v>5.0494429420087972</v>
+      </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2016</v>
       </c>
@@ -4718,7 +5009,7 @@
         <v>-2.7520218694216059</v>
       </c>
       <c r="AG37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.636522549473515</v>
       </c>
       <c r="AH37" s="3">
@@ -4727,8 +5018,16 @@
       <c r="AI37" s="3">
         <v>32266860000</v>
       </c>
+      <c r="AJ37" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0713826040632979</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="3"/>
+        <v>5.6358667063191703</v>
+      </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2016</v>
       </c>
@@ -4828,7 +5127,7 @@
         <v>3.8588037610161496</v>
       </c>
       <c r="AG38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.253666309210963</v>
       </c>
       <c r="AH38" s="3">
@@ -4837,8 +5136,16 @@
       <c r="AI38" s="3">
         <v>32956091999.999996</v>
       </c>
+      <c r="AJ38" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1360367882093056</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="3"/>
+        <v>6.0891923176393359</v>
+      </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2016</v>
       </c>
@@ -4938,7 +5245,7 @@
         <v>16.150901552482956</v>
       </c>
       <c r="AG39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25.925015593457967</v>
       </c>
       <c r="AH39" s="3">
@@ -4947,8 +5254,16 @@
       <c r="AI39" s="3">
         <v>33937792999.999996</v>
       </c>
+      <c r="AJ39" s="3">
+        <f t="shared" si="2"/>
+        <v>2.978814963861609</v>
+      </c>
+      <c r="AK39">
+        <f t="shared" si="3"/>
+        <v>9.0933307848708225</v>
+      </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2016</v>
       </c>
@@ -5048,7 +5363,7 @@
         <v>9.9985938175663378</v>
       </c>
       <c r="AG40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29.042751678916233</v>
       </c>
       <c r="AH40" s="3">
@@ -5057,8 +5372,16 @@
       <c r="AI40" s="3">
         <v>35463509000</v>
       </c>
+      <c r="AJ40" s="3">
+        <f t="shared" si="2"/>
+        <v>4.495625275338333</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" si="3"/>
+        <v>11.084434203441006</v>
+      </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2017</v>
       </c>
@@ -5158,7 +5481,7 @@
         <v>-5.2207157017702617</v>
       </c>
       <c r="AG41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25.76692989523568</v>
       </c>
       <c r="AH41" s="3">
@@ -5167,8 +5490,16 @@
       <c r="AI41" s="3">
         <v>36053414000</v>
       </c>
+      <c r="AJ41" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6634140744504533</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="3"/>
+        <v>11.735117702807152</v>
+      </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -5268,7 +5599,7 @@
         <v>6.676501411057334</v>
       </c>
       <c r="AG42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29.178996758957009</v>
       </c>
       <c r="AH42" s="3">
@@ -5277,8 +5608,16 @@
       <c r="AI42" s="3">
         <v>43198845000</v>
       </c>
+      <c r="AJ42" s="3">
+        <f t="shared" si="2"/>
+        <v>19.81901353364206</v>
+      </c>
+      <c r="AK42">
+        <f t="shared" si="3"/>
+        <v>31.07999880568364</v>
+      </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2017</v>
       </c>
@@ -5378,7 +5717,7 @@
         <v>4.2990357631650378</v>
       </c>
       <c r="AG43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.997763450198722</v>
       </c>
       <c r="AH43" s="3">
@@ -5387,8 +5726,16 @@
       <c r="AI43" s="3">
         <v>43790335000</v>
       </c>
+      <c r="AJ43" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3692264226045969</v>
+      </c>
+      <c r="AK43">
+        <f t="shared" si="3"/>
+        <v>29.031180666344468</v>
+      </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2017</v>
       </c>
@@ -5488,7 +5835,7 @@
         <v>7.4971340945710452</v>
       </c>
       <c r="AG44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.359877608590164</v>
       </c>
       <c r="AH44" s="3">
@@ -5497,8 +5844,16 @@
       <c r="AI44" s="3">
         <v>43855877000</v>
       </c>
+      <c r="AJ44" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14967229640969748</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" si="3"/>
+        <v>23.664798652609353</v>
+      </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -5553,7 +5908,7 @@
         <v>-4.7984395775437676</v>
       </c>
       <c r="AG45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.864937022298363</v>
       </c>
       <c r="AH45" s="3">
@@ -5562,8 +5917,16 @@
       <c r="AI45" s="3">
         <v>44449176000</v>
       </c>
+      <c r="AJ45" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3528380700265075</v>
+      </c>
+      <c r="AK45">
+        <f t="shared" si="3"/>
+        <v>23.287009657393341</v>
+      </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -5618,7 +5981,7 @@
         <v>1.6165915596048297</v>
       </c>
       <c r="AG46" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.4640632689112039</v>
       </c>
       <c r="AH46" s="3">
@@ -5627,8 +5990,16 @@
       <c r="AI46" s="3">
         <v>45225971000</v>
       </c>
+      <c r="AJ46" s="3">
+        <f t="shared" si="2"/>
+        <v>1.747602700216544</v>
+      </c>
+      <c r="AK46">
+        <f t="shared" si="3"/>
+        <v>4.692546756747773</v>
+      </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -5683,7 +6054,7 @@
         <v>-7.2026823848780896E-2</v>
       </c>
       <c r="AG47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.9184487718913363</v>
       </c>
       <c r="AH47" s="3">
@@ -5692,8 +6063,16 @@
       <c r="AI47" s="3">
         <v>46352924000</v>
       </c>
+      <c r="AJ47" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4918270964265243</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" si="3"/>
+        <v>5.8519511211777564</v>
+      </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -5748,7 +6127,7 @@
         <v>7.3767009062869038</v>
       </c>
       <c r="AG48" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.8020249228970737</v>
       </c>
       <c r="AH48" s="3">
@@ -5757,8 +6136,16 @@
       <c r="AI48" s="3">
         <v>47115104000</v>
       </c>
+      <c r="AJ48" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6442975636229651</v>
+      </c>
+      <c r="AK48">
+        <f t="shared" si="3"/>
+        <v>7.4316767168970399</v>
+      </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2019</v>
       </c>
@@ -5813,7 +6200,7 @@
         <v>2.5839739551955621</v>
       </c>
       <c r="AG49" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.851362245899422</v>
       </c>
       <c r="AH49" s="3">
@@ -5822,8 +6209,16 @@
       <c r="AI49" s="3">
         <v>47330100000</v>
       </c>
+      <c r="AJ49" s="3">
+        <f t="shared" si="2"/>
+        <v>0.45632075862551691</v>
+      </c>
+      <c r="AK49">
+        <f t="shared" si="3"/>
+        <v>6.4813889913279743</v>
+      </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2019</v>
       </c>
@@ -5878,7 +6273,7 @@
         <v>3.6499833608713228</v>
       </c>
       <c r="AG50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.089556220530941</v>
       </c>
       <c r="AH50" s="3">
@@ -5887,8 +6282,16 @@
       <c r="AI50" s="3">
         <v>48379799000</v>
       </c>
+      <c r="AJ50" s="3">
+        <f t="shared" si="2"/>
+        <v>2.2178254430056166</v>
+      </c>
+      <c r="AK50">
+        <f t="shared" si="3"/>
+        <v>6.97348875052346</v>
+      </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2019</v>
       </c>
@@ -5943,7 +6346,7 @@
         <v>0.52837892570682943</v>
       </c>
       <c r="AG51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.775050215273588</v>
       </c>
       <c r="AH51" s="3">
@@ -5952,8 +6355,16 @@
       <c r="AI51" s="3">
         <v>49599458000</v>
       </c>
+      <c r="AJ51" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5210088202309411</v>
+      </c>
+      <c r="AK51">
+        <f t="shared" si="3"/>
+        <v>7.0039465040004911</v>
+      </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2019</v>
       </c>
@@ -6008,7 +6419,7 @@
         <v>7.4508970820768683</v>
       </c>
       <c r="AG52" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.854358572954517</v>
       </c>
       <c r="AH52" s="3">
@@ -6017,8 +6428,16 @@
       <c r="AI52" s="3">
         <v>50255601000</v>
       </c>
+      <c r="AJ52" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3228834073146567</v>
+      </c>
+      <c r="AK52">
+        <f t="shared" si="3"/>
+        <v>6.6655843527374969</v>
+      </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2020</v>
       </c>
@@ -6073,7 +6492,7 @@
         <v>-8.986653479846618E-2</v>
       </c>
       <c r="AG53" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.860691798661026</v>
       </c>
       <c r="AH53" s="3">
@@ -6082,8 +6501,16 @@
       <c r="AI53" s="3">
         <v>49902736000</v>
       </c>
+      <c r="AJ53" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.70214064299022327</v>
+      </c>
+      <c r="AK53">
+        <f t="shared" si="3"/>
+        <v>5.4355177783271147</v>
+      </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2020</v>
       </c>
@@ -6138,7 +6565,7 @@
         <v>-6.4396152803009699</v>
       </c>
       <c r="AG54" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.97183829983424896</v>
       </c>
       <c r="AH54" s="3">
@@ -6147,8 +6574,16 @@
       <c r="AI54" s="3">
         <v>50157635000</v>
       </c>
+      <c r="AJ54" s="3">
+        <f t="shared" si="2"/>
+        <v>0.51079163274734274</v>
+      </c>
+      <c r="AK54">
+        <f t="shared" si="3"/>
+        <v>3.674748628037916</v>
+      </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2020</v>
       </c>
@@ -6203,7 +6638,7 @@
         <v>7.2481676939463835</v>
       </c>
       <c r="AG55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.7212699744180213</v>
       </c>
       <c r="AH55" s="3">
@@ -6212,8 +6647,16 @@
       <c r="AI55" s="3">
         <v>50686187000</v>
       </c>
+      <c r="AJ55" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0537817423010409</v>
+      </c>
+      <c r="AK55">
+        <f t="shared" si="3"/>
+        <v>2.1910098291799907</v>
+      </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2020</v>
       </c>
@@ -6268,7 +6711,7 @@
         <v>1.8784041282256192</v>
       </c>
       <c r="AG56" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1347552573391271</v>
       </c>
       <c r="AH56" s="3">
@@ -6276,6 +6719,14 @@
       </c>
       <c r="AI56" s="3">
         <v>50684928000</v>
+      </c>
+      <c r="AJ56" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.4839114451391531E-3</v>
+      </c>
+      <c r="AK56">
+        <f t="shared" si="3"/>
+        <v>0.85428686844277735</v>
       </c>
     </row>
   </sheetData>
